--- a/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada_Iniciativas - v0.3.xlsx
+++ b/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada_Iniciativas - v0.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="8175" tabRatio="892" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="8175" tabRatio="892" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pl. suporte" sheetId="51" state="hidden" r:id="rId1"/>
@@ -963,20 +963,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -988,6 +976,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1496,8 +1496,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:M10"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,18 +1786,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="90" t="s">
         <v>51</v>
       </c>
@@ -1807,65 +1807,65 @@
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
-      <c r="L15" s="94" t="s">
+      <c r="L15" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94" t="s">
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91" t="s">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91" t="s">
+      <c r="F16" s="87"/>
+      <c r="G16" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="91" t="s">
+      <c r="H16" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="91" t="s">
+      <c r="J16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="91" t="s">
+      <c r="K16" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="91" t="s">
+      <c r="L16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="91" t="s">
+      <c r="M16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="91" t="s">
+      <c r="N16" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="91" t="s">
+      <c r="O16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="91" t="s">
+      <c r="Q16" s="87" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="91"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -1878,17 +1878,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -1913,7 +1913,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="49">
         <f>C18</f>
@@ -1921,11 +1921,11 @@
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="52">
         <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -1957,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" ref="I19:I34" si="1">C19</f>
@@ -1965,11 +1965,11 @@
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" s="52">
         <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -2001,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="1"/>
@@ -2009,11 +2009,11 @@
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -2045,7 +2045,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="1"/>
@@ -2053,11 +2053,11 @@
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -2089,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="49">
         <f t="shared" si="1"/>
@@ -2097,11 +2097,11 @@
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K22" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -2133,7 +2133,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="49">
         <f t="shared" si="1"/>
@@ -2141,11 +2141,11 @@
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K23" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -2177,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" si="1"/>
@@ -2185,11 +2185,11 @@
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K24" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -2221,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
@@ -2229,11 +2229,11 @@
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K25" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -2265,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" si="1"/>
@@ -2273,11 +2273,11 @@
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K26" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -2309,7 +2309,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="49">
         <f t="shared" si="1"/>
@@ -2317,11 +2317,11 @@
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K27" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -2353,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="49">
         <f t="shared" si="1"/>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K28" s="52">
         <f t="shared" si="3"/>
@@ -2401,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="49">
         <f t="shared" si="1"/>
@@ -2409,11 +2409,11 @@
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K29" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -2445,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" si="1"/>
@@ -2453,11 +2453,11 @@
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K30" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -2489,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="1"/>
@@ -2497,11 +2497,11 @@
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -2533,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="1"/>
@@ -2541,11 +2541,11 @@
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K32" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -2577,7 +2577,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="49">
         <f t="shared" si="1"/>
@@ -2585,11 +2585,11 @@
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K33" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -2621,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="49">
         <f t="shared" si="1"/>
@@ -2629,11 +2629,11 @@
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K34" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -2704,20 +2704,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="89" t="s">
+      <c r="E39" s="92"/>
+      <c r="F39" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88" t="s">
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -2938,20 +2938,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="86" t="s">
+      <c r="D50" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="87"/>
-      <c r="F50" s="88" t="s">
+      <c r="E50" s="92"/>
+      <c r="F50" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88" t="s">
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -3194,11 +3194,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -3215,11 +3215,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3233,8 +3233,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:M10"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3523,18 +3523,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="90" t="s">
         <v>51</v>
       </c>
@@ -3544,65 +3544,65 @@
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
-      <c r="L15" s="94" t="s">
+      <c r="L15" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94" t="s">
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91" t="s">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91" t="s">
+      <c r="F16" s="87"/>
+      <c r="G16" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="91" t="s">
+      <c r="H16" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="91" t="s">
+      <c r="J16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="91" t="s">
+      <c r="K16" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="91" t="s">
+      <c r="L16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="91" t="s">
+      <c r="M16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="91" t="s">
+      <c r="N16" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="91" t="s">
+      <c r="O16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="91" t="s">
+      <c r="Q16" s="87" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="91"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -3615,17 +3615,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -3650,7 +3650,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="49">
         <f>C18</f>
@@ -3658,11 +3658,11 @@
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="52">
         <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -3694,7 +3694,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" ref="I19:I34" si="1">C19</f>
@@ -3702,11 +3702,11 @@
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" s="52">
         <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -3738,7 +3738,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="1"/>
@@ -3746,11 +3746,11 @@
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -3782,7 +3782,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="1"/>
@@ -3790,11 +3790,11 @@
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="49">
         <f t="shared" si="1"/>
@@ -3834,11 +3834,11 @@
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K22" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -3870,7 +3870,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="49">
         <f t="shared" si="1"/>
@@ -3878,11 +3878,11 @@
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K23" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -3914,7 +3914,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" si="1"/>
@@ -3922,11 +3922,11 @@
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K24" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -3958,7 +3958,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
@@ -3966,11 +3966,11 @@
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K25" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -4002,7 +4002,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" si="1"/>
@@ -4010,11 +4010,11 @@
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K26" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -4046,7 +4046,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="49">
         <f t="shared" si="1"/>
@@ -4054,11 +4054,11 @@
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K27" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -4090,7 +4090,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="49">
         <f t="shared" si="1"/>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K28" s="52">
         <f t="shared" si="3"/>
@@ -4138,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="49">
         <f t="shared" si="1"/>
@@ -4146,11 +4146,11 @@
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K29" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -4182,7 +4182,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" si="1"/>
@@ -4190,11 +4190,11 @@
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K30" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -4226,7 +4226,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="1"/>
@@ -4234,11 +4234,11 @@
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -4270,7 +4270,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="1"/>
@@ -4278,11 +4278,11 @@
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K32" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -4314,7 +4314,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="49">
         <f t="shared" si="1"/>
@@ -4322,11 +4322,11 @@
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K33" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -4358,7 +4358,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="49">
         <f t="shared" si="1"/>
@@ -4366,11 +4366,11 @@
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K34" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -4441,20 +4441,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="89" t="s">
+      <c r="E39" s="92"/>
+      <c r="F39" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88" t="s">
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -4675,20 +4675,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="86" t="s">
+      <c r="D50" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="87"/>
-      <c r="F50" s="88" t="s">
+      <c r="E50" s="92"/>
+      <c r="F50" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88" t="s">
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -4931,11 +4931,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -4952,11 +4952,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4970,8 +4970,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:M10"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5260,18 +5260,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="90" t="s">
         <v>51</v>
       </c>
@@ -5281,65 +5281,65 @@
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
-      <c r="L15" s="94" t="s">
+      <c r="L15" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94" t="s">
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91" t="s">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91" t="s">
+      <c r="F16" s="87"/>
+      <c r="G16" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="91" t="s">
+      <c r="H16" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="91" t="s">
+      <c r="J16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="91" t="s">
+      <c r="K16" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="91" t="s">
+      <c r="L16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="91" t="s">
+      <c r="M16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="91" t="s">
+      <c r="N16" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="91" t="s">
+      <c r="O16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="91" t="s">
+      <c r="Q16" s="87" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="91"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -5352,17 +5352,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -5387,7 +5387,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="49">
         <f>C18</f>
@@ -5395,11 +5395,11 @@
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="52">
         <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -5431,7 +5431,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" ref="I19:I34" si="1">C19</f>
@@ -5439,11 +5439,11 @@
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" s="52">
         <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -5475,7 +5475,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="1"/>
@@ -5483,11 +5483,11 @@
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -5519,7 +5519,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="1"/>
@@ -5527,11 +5527,11 @@
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -5563,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="49">
         <f t="shared" si="1"/>
@@ -5571,11 +5571,11 @@
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K22" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -5607,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="49">
         <f t="shared" si="1"/>
@@ -5615,11 +5615,11 @@
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K23" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -5651,7 +5651,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" si="1"/>
@@ -5659,11 +5659,11 @@
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K24" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -5695,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K25" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -5739,7 +5739,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" si="1"/>
@@ -5747,11 +5747,11 @@
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K26" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -5783,7 +5783,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="49">
         <f t="shared" si="1"/>
@@ -5791,11 +5791,11 @@
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K27" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -5827,7 +5827,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="49">
         <f t="shared" si="1"/>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K28" s="52">
         <f t="shared" si="3"/>
@@ -5875,7 +5875,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="49">
         <f t="shared" si="1"/>
@@ -5883,11 +5883,11 @@
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K29" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -5919,7 +5919,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" si="1"/>
@@ -5927,11 +5927,11 @@
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K30" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -5963,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="1"/>
@@ -5971,11 +5971,11 @@
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -6007,7 +6007,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="1"/>
@@ -6015,11 +6015,11 @@
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K32" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -6051,7 +6051,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="49">
         <f t="shared" si="1"/>
@@ -6059,11 +6059,11 @@
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K33" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -6095,7 +6095,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="49">
         <f t="shared" si="1"/>
@@ -6103,11 +6103,11 @@
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K34" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -6178,20 +6178,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="89" t="s">
+      <c r="E39" s="92"/>
+      <c r="F39" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88" t="s">
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -6412,20 +6412,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="86" t="s">
+      <c r="D50" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="87"/>
-      <c r="F50" s="88" t="s">
+      <c r="E50" s="92"/>
+      <c r="F50" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88" t="s">
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -6668,11 +6668,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -6689,11 +6689,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6707,9 +6707,7 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:M10"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6997,18 +6995,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="90" t="s">
         <v>51</v>
       </c>
@@ -7018,65 +7016,65 @@
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
-      <c r="L15" s="94" t="s">
+      <c r="L15" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94" t="s">
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91" t="s">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91" t="s">
+      <c r="F16" s="87"/>
+      <c r="G16" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="91" t="s">
+      <c r="H16" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="91" t="s">
+      <c r="J16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="91" t="s">
+      <c r="K16" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="91" t="s">
+      <c r="L16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="91" t="s">
+      <c r="M16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="91" t="s">
+      <c r="N16" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="91" t="s">
+      <c r="O16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="91" t="s">
+      <c r="Q16" s="87" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="91"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -7089,17 +7087,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -7124,7 +7122,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="49">
         <f>C18</f>
@@ -7132,11 +7130,11 @@
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="52">
         <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -7168,7 +7166,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" ref="I19:I34" si="1">C19</f>
@@ -7176,11 +7174,11 @@
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" s="52">
         <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -7212,7 +7210,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="1"/>
@@ -7220,11 +7218,11 @@
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -7256,7 +7254,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="1"/>
@@ -7264,11 +7262,11 @@
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -7300,7 +7298,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="49">
         <f t="shared" si="1"/>
@@ -7308,11 +7306,11 @@
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K22" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -7344,7 +7342,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="49">
         <f t="shared" si="1"/>
@@ -7352,11 +7350,11 @@
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K23" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -7388,7 +7386,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" si="1"/>
@@ -7396,11 +7394,11 @@
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K24" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -7432,7 +7430,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
@@ -7440,11 +7438,11 @@
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K25" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -7476,7 +7474,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" si="1"/>
@@ -7484,11 +7482,11 @@
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K26" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -7520,7 +7518,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="49">
         <f t="shared" si="1"/>
@@ -7528,11 +7526,11 @@
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K27" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -7564,7 +7562,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="49">
         <f t="shared" si="1"/>
@@ -7572,7 +7570,7 @@
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K28" s="52">
         <f t="shared" si="3"/>
@@ -7612,7 +7610,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="49">
         <f t="shared" si="1"/>
@@ -7620,11 +7618,11 @@
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K29" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -7656,7 +7654,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" si="1"/>
@@ -7664,11 +7662,11 @@
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K30" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -7700,7 +7698,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="1"/>
@@ -7708,11 +7706,11 @@
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -7744,7 +7742,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="1"/>
@@ -7752,11 +7750,11 @@
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K32" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -7788,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="49">
         <f t="shared" si="1"/>
@@ -7796,11 +7794,11 @@
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K33" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -7832,7 +7830,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="49">
         <f t="shared" si="1"/>
@@ -7840,11 +7838,11 @@
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K34" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -7915,20 +7913,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="89" t="s">
+      <c r="E39" s="92"/>
+      <c r="F39" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88" t="s">
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -8149,20 +8147,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="86" t="s">
+      <c r="D50" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="87"/>
-      <c r="F50" s="88" t="s">
+      <c r="E50" s="92"/>
+      <c r="F50" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88" t="s">
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -8405,11 +8403,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -8426,11 +8424,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9145,8 +9143,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9434,18 +9432,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="90" t="s">
         <v>51</v>
       </c>
@@ -9455,65 +9453,65 @@
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
-      <c r="L15" s="94" t="s">
+      <c r="L15" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94" t="s">
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91" t="s">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91" t="s">
+      <c r="F16" s="87"/>
+      <c r="G16" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="91" t="s">
+      <c r="H16" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="91" t="s">
+      <c r="J16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="91" t="s">
+      <c r="K16" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="91" t="s">
+      <c r="L16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="91" t="s">
+      <c r="M16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="91" t="s">
+      <c r="N16" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="91" t="s">
+      <c r="O16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="91" t="s">
+      <c r="Q16" s="87" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="91"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="79" t="s">
         <v>71</v>
       </c>
@@ -9526,17 +9524,17 @@
       <c r="F17" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -9561,7 +9559,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="49">
         <f>C18</f>
@@ -9569,11 +9567,11 @@
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="52">
         <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -9605,7 +9603,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" ref="I19:I34" si="1">C19</f>
@@ -9613,11 +9611,11 @@
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" s="52">
         <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -9649,7 +9647,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="1"/>
@@ -9657,11 +9655,11 @@
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -9693,7 +9691,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="1"/>
@@ -9701,11 +9699,11 @@
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -9737,7 +9735,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="49">
         <f t="shared" si="1"/>
@@ -9745,11 +9743,11 @@
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K22" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -9781,7 +9779,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="49">
         <f t="shared" si="1"/>
@@ -9789,11 +9787,11 @@
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K23" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -9825,7 +9823,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" si="1"/>
@@ -9833,11 +9831,11 @@
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K24" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -9869,7 +9867,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
@@ -9877,11 +9875,11 @@
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K25" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -9913,7 +9911,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" si="1"/>
@@ -9921,11 +9919,11 @@
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K26" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -9957,7 +9955,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="49">
         <f t="shared" si="1"/>
@@ -9965,11 +9963,11 @@
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K27" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -10001,7 +9999,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="49">
         <f t="shared" si="1"/>
@@ -10009,7 +10007,7 @@
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K28" s="52">
         <f t="shared" si="3"/>
@@ -10049,7 +10047,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="49">
         <f t="shared" si="1"/>
@@ -10057,11 +10055,11 @@
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K29" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -10093,7 +10091,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" si="1"/>
@@ -10101,11 +10099,11 @@
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K30" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -10137,7 +10135,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="1"/>
@@ -10145,11 +10143,11 @@
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -10181,7 +10179,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="1"/>
@@ -10189,11 +10187,11 @@
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K32" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -10225,7 +10223,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="49">
         <f t="shared" si="1"/>
@@ -10233,11 +10231,11 @@
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K33" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -10269,7 +10267,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="49">
         <f t="shared" si="1"/>
@@ -10277,11 +10275,11 @@
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K34" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -10348,20 +10346,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="89" t="s">
+      <c r="E39" s="92"/>
+      <c r="F39" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88" t="s">
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -10582,20 +10580,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="86" t="s">
+      <c r="D50" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="87"/>
-      <c r="F50" s="88" t="s">
+      <c r="E50" s="92"/>
+      <c r="F50" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88" t="s">
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -10838,6 +10836,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="B15:B17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="M16:M17"/>
@@ -10846,24 +10862,6 @@
     <mergeCell ref="O16:O17"/>
     <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I50:K50"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10877,8 +10875,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:M10"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11167,18 +11165,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="90" t="s">
         <v>51</v>
       </c>
@@ -11188,65 +11186,65 @@
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
-      <c r="L15" s="94" t="s">
+      <c r="L15" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94" t="s">
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91" t="s">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91" t="s">
+      <c r="F16" s="87"/>
+      <c r="G16" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="91" t="s">
+      <c r="H16" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="91" t="s">
+      <c r="J16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="91" t="s">
+      <c r="K16" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="91" t="s">
+      <c r="L16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="91" t="s">
+      <c r="M16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="91" t="s">
+      <c r="N16" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="91" t="s">
+      <c r="O16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="91" t="s">
+      <c r="Q16" s="87" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="91"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -11259,17 +11257,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -11294,7 +11292,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="49">
         <f>C18</f>
@@ -11302,11 +11300,11 @@
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="52">
         <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -11338,7 +11336,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" ref="I19:I34" si="1">C19</f>
@@ -11346,11 +11344,11 @@
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" s="52">
         <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -11382,7 +11380,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="1"/>
@@ -11390,11 +11388,11 @@
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -11426,7 +11424,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="1"/>
@@ -11434,11 +11432,11 @@
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -11470,7 +11468,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="49">
         <f t="shared" si="1"/>
@@ -11478,11 +11476,11 @@
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K22" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -11514,7 +11512,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="49">
         <f t="shared" si="1"/>
@@ -11522,11 +11520,11 @@
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K23" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -11558,7 +11556,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" si="1"/>
@@ -11566,11 +11564,11 @@
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K24" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -11602,7 +11600,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
@@ -11610,11 +11608,11 @@
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K25" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -11646,7 +11644,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" si="1"/>
@@ -11654,11 +11652,11 @@
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K26" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -11690,7 +11688,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="49">
         <f t="shared" si="1"/>
@@ -11698,11 +11696,11 @@
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K27" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -11734,7 +11732,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="49">
         <f t="shared" si="1"/>
@@ -11742,7 +11740,7 @@
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K28" s="52">
         <f t="shared" si="3"/>
@@ -11782,7 +11780,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="49">
         <f t="shared" si="1"/>
@@ -11790,11 +11788,11 @@
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K29" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -11826,7 +11824,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" si="1"/>
@@ -11834,11 +11832,11 @@
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K30" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -11870,7 +11868,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="1"/>
@@ -11878,11 +11876,11 @@
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -11914,7 +11912,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="1"/>
@@ -11922,11 +11920,11 @@
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K32" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -11958,7 +11956,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="49">
         <f t="shared" si="1"/>
@@ -11966,11 +11964,11 @@
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K33" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -12002,7 +12000,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="49">
         <f t="shared" si="1"/>
@@ -12010,11 +12008,11 @@
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K34" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -12085,20 +12083,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="89" t="s">
+      <c r="E39" s="92"/>
+      <c r="F39" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88" t="s">
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -12319,20 +12317,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="86" t="s">
+      <c r="D50" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="87"/>
-      <c r="F50" s="88" t="s">
+      <c r="E50" s="92"/>
+      <c r="F50" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88" t="s">
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -12575,11 +12573,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -12596,11 +12594,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12614,8 +12612,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:M10"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12904,18 +12902,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="90" t="s">
         <v>51</v>
       </c>
@@ -12925,65 +12923,65 @@
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
-      <c r="L15" s="94" t="s">
+      <c r="L15" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94" t="s">
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91" t="s">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91" t="s">
+      <c r="F16" s="87"/>
+      <c r="G16" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="91" t="s">
+      <c r="H16" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="91" t="s">
+      <c r="J16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="91" t="s">
+      <c r="K16" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="91" t="s">
+      <c r="L16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="91" t="s">
+      <c r="M16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="91" t="s">
+      <c r="N16" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="91" t="s">
+      <c r="O16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="91" t="s">
+      <c r="Q16" s="87" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="91"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -12996,17 +12994,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -13031,7 +13029,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="49">
         <f>C18</f>
@@ -13039,11 +13037,11 @@
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="52">
         <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -13075,7 +13073,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" ref="I19:I34" si="1">C19</f>
@@ -13083,11 +13081,11 @@
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" s="52">
         <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -13119,7 +13117,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="1"/>
@@ -13127,11 +13125,11 @@
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -13163,7 +13161,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="1"/>
@@ -13171,11 +13169,11 @@
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -13207,7 +13205,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="49">
         <f t="shared" si="1"/>
@@ -13215,11 +13213,11 @@
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K22" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -13251,7 +13249,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="49">
         <f t="shared" si="1"/>
@@ -13259,11 +13257,11 @@
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K23" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -13295,7 +13293,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" si="1"/>
@@ -13303,11 +13301,11 @@
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K24" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -13339,7 +13337,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
@@ -13347,11 +13345,11 @@
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K25" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -13383,7 +13381,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" si="1"/>
@@ -13391,11 +13389,11 @@
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K26" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -13427,7 +13425,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="49">
         <f t="shared" si="1"/>
@@ -13435,11 +13433,11 @@
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K27" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -13471,7 +13469,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="49">
         <f t="shared" si="1"/>
@@ -13479,7 +13477,7 @@
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K28" s="52">
         <f t="shared" si="3"/>
@@ -13519,7 +13517,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="49">
         <f t="shared" si="1"/>
@@ -13527,11 +13525,11 @@
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K29" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -13563,7 +13561,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" si="1"/>
@@ -13571,11 +13569,11 @@
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K30" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -13607,7 +13605,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="1"/>
@@ -13615,11 +13613,11 @@
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -13651,7 +13649,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="1"/>
@@ -13659,11 +13657,11 @@
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K32" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -13695,7 +13693,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="49">
         <f t="shared" si="1"/>
@@ -13703,11 +13701,11 @@
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K33" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -13739,7 +13737,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="49">
         <f t="shared" si="1"/>
@@ -13747,11 +13745,11 @@
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K34" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -13822,20 +13820,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="89" t="s">
+      <c r="E39" s="92"/>
+      <c r="F39" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88" t="s">
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -14056,20 +14054,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="86" t="s">
+      <c r="D50" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="87"/>
-      <c r="F50" s="88" t="s">
+      <c r="E50" s="92"/>
+      <c r="F50" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88" t="s">
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -14312,11 +14310,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -14333,11 +14331,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14351,8 +14349,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:M10"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14641,18 +14639,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="90" t="s">
         <v>51</v>
       </c>
@@ -14662,65 +14660,65 @@
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
-      <c r="L15" s="94" t="s">
+      <c r="L15" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94" t="s">
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91" t="s">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91" t="s">
+      <c r="F16" s="87"/>
+      <c r="G16" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="91" t="s">
+      <c r="H16" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="91" t="s">
+      <c r="J16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="91" t="s">
+      <c r="K16" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="91" t="s">
+      <c r="L16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="91" t="s">
+      <c r="M16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="91" t="s">
+      <c r="N16" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="91" t="s">
+      <c r="O16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="91" t="s">
+      <c r="Q16" s="87" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="91"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -14733,17 +14731,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -14768,7 +14766,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="49">
         <f>C18</f>
@@ -14776,11 +14774,11 @@
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="52">
         <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -14812,7 +14810,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" ref="I19:I34" si="1">C19</f>
@@ -14820,11 +14818,11 @@
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" s="52">
         <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -14856,7 +14854,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="1"/>
@@ -14864,11 +14862,11 @@
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -14900,7 +14898,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="1"/>
@@ -14908,11 +14906,11 @@
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -14944,7 +14942,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="49">
         <f t="shared" si="1"/>
@@ -14952,11 +14950,11 @@
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K22" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -14988,7 +14986,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="49">
         <f t="shared" si="1"/>
@@ -14996,11 +14994,11 @@
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K23" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -15032,7 +15030,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" si="1"/>
@@ -15040,11 +15038,11 @@
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K24" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -15076,7 +15074,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
@@ -15084,11 +15082,11 @@
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K25" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -15120,7 +15118,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" si="1"/>
@@ -15128,11 +15126,11 @@
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K26" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -15164,7 +15162,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="49">
         <f t="shared" si="1"/>
@@ -15172,11 +15170,11 @@
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K27" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -15208,7 +15206,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="49">
         <f t="shared" si="1"/>
@@ -15216,7 +15214,7 @@
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K28" s="52">
         <f t="shared" si="3"/>
@@ -15256,7 +15254,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="49">
         <f t="shared" si="1"/>
@@ -15264,11 +15262,11 @@
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K29" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -15300,7 +15298,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" si="1"/>
@@ -15308,11 +15306,11 @@
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K30" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -15344,7 +15342,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="1"/>
@@ -15352,11 +15350,11 @@
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -15388,7 +15386,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="1"/>
@@ -15396,11 +15394,11 @@
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K32" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -15432,7 +15430,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="49">
         <f t="shared" si="1"/>
@@ -15440,11 +15438,11 @@
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K33" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -15476,7 +15474,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="49">
         <f t="shared" si="1"/>
@@ -15484,11 +15482,11 @@
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K34" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -15559,20 +15557,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="89" t="s">
+      <c r="E39" s="92"/>
+      <c r="F39" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88" t="s">
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -15793,20 +15791,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="86" t="s">
+      <c r="D50" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="87"/>
-      <c r="F50" s="88" t="s">
+      <c r="E50" s="92"/>
+      <c r="F50" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88" t="s">
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -16049,11 +16047,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -16070,11 +16068,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16088,8 +16086,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:M10"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16378,18 +16376,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="90" t="s">
         <v>51</v>
       </c>
@@ -16399,65 +16397,65 @@
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
-      <c r="L15" s="94" t="s">
+      <c r="L15" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94" t="s">
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91" t="s">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91" t="s">
+      <c r="F16" s="87"/>
+      <c r="G16" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="91" t="s">
+      <c r="H16" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="91" t="s">
+      <c r="J16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="91" t="s">
+      <c r="K16" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="91" t="s">
+      <c r="L16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="91" t="s">
+      <c r="M16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="91" t="s">
+      <c r="N16" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="91" t="s">
+      <c r="O16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="91" t="s">
+      <c r="Q16" s="87" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="91"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -16470,17 +16468,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -16505,7 +16503,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="49">
         <f>C18</f>
@@ -16513,11 +16511,11 @@
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="52">
         <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -16549,7 +16547,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" ref="I19:I34" si="1">C19</f>
@@ -16557,11 +16555,11 @@
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" s="52">
         <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -16593,7 +16591,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="1"/>
@@ -16601,11 +16599,11 @@
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -16637,7 +16635,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="1"/>
@@ -16645,11 +16643,11 @@
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -16681,7 +16679,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="49">
         <f t="shared" si="1"/>
@@ -16689,11 +16687,11 @@
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K22" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -16725,7 +16723,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="49">
         <f t="shared" si="1"/>
@@ -16733,11 +16731,11 @@
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K23" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -16769,7 +16767,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" si="1"/>
@@ -16777,11 +16775,11 @@
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K24" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -16813,7 +16811,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
@@ -16821,11 +16819,11 @@
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K25" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -16857,7 +16855,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" si="1"/>
@@ -16865,11 +16863,11 @@
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K26" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -16901,7 +16899,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="49">
         <f t="shared" si="1"/>
@@ -16909,11 +16907,11 @@
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K27" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -16945,7 +16943,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="49">
         <f t="shared" si="1"/>
@@ -16953,7 +16951,7 @@
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K28" s="52">
         <f t="shared" si="3"/>
@@ -16993,7 +16991,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="49">
         <f t="shared" si="1"/>
@@ -17001,11 +16999,11 @@
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K29" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -17037,7 +17035,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" si="1"/>
@@ -17045,11 +17043,11 @@
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K30" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -17081,7 +17079,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="1"/>
@@ -17089,11 +17087,11 @@
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -17125,7 +17123,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="1"/>
@@ -17133,11 +17131,11 @@
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K32" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -17169,7 +17167,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="49">
         <f t="shared" si="1"/>
@@ -17177,11 +17175,11 @@
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K33" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -17213,7 +17211,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="49">
         <f t="shared" si="1"/>
@@ -17221,11 +17219,11 @@
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K34" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -17296,20 +17294,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="89" t="s">
+      <c r="E39" s="92"/>
+      <c r="F39" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88" t="s">
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -17530,20 +17528,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="86" t="s">
+      <c r="D50" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="87"/>
-      <c r="F50" s="88" t="s">
+      <c r="E50" s="92"/>
+      <c r="F50" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88" t="s">
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -17786,11 +17784,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -17807,11 +17805,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17825,8 +17823,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:M10"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18115,18 +18113,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="90" t="s">
         <v>51</v>
       </c>
@@ -18136,65 +18134,65 @@
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
-      <c r="L15" s="94" t="s">
+      <c r="L15" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94" t="s">
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91" t="s">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91" t="s">
+      <c r="F16" s="87"/>
+      <c r="G16" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="91" t="s">
+      <c r="H16" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="91" t="s">
+      <c r="J16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="91" t="s">
+      <c r="K16" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="91" t="s">
+      <c r="L16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="91" t="s">
+      <c r="M16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="91" t="s">
+      <c r="N16" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="91" t="s">
+      <c r="O16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="91" t="s">
+      <c r="Q16" s="87" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="91"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -18207,17 +18205,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -18242,7 +18240,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="49">
         <f>C18</f>
@@ -18250,11 +18248,11 @@
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="52">
         <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -18286,7 +18284,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" ref="I19:I34" si="1">C19</f>
@@ -18294,11 +18292,11 @@
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" s="52">
         <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -18330,7 +18328,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="1"/>
@@ -18338,11 +18336,11 @@
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -18374,7 +18372,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="1"/>
@@ -18382,11 +18380,11 @@
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="52">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -18418,7 +18416,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="49">
         <f t="shared" si="1"/>
@@ -18426,11 +18424,11 @@
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K22" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -18462,7 +18460,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="49">
         <f t="shared" si="1"/>
@@ -18470,11 +18468,11 @@
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K23" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -18506,7 +18504,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" si="1"/>
@@ -18514,11 +18512,11 @@
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K24" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -18550,7 +18548,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
@@ -18558,11 +18556,11 @@
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K25" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -18594,7 +18592,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" si="1"/>
@@ -18602,11 +18600,11 @@
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K26" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -18638,7 +18636,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="49">
         <f t="shared" si="1"/>
@@ -18646,11 +18644,11 @@
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K27" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -18682,7 +18680,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="49">
         <f t="shared" si="1"/>
@@ -18690,7 +18688,7 @@
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K28" s="52">
         <f t="shared" si="3"/>
@@ -18730,7 +18728,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="49">
         <f t="shared" si="1"/>
@@ -18738,11 +18736,11 @@
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K29" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -18774,7 +18772,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" si="1"/>
@@ -18782,11 +18780,11 @@
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K30" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -18818,7 +18816,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="1"/>
@@ -18826,11 +18824,11 @@
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -18862,7 +18860,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="1"/>
@@ -18870,11 +18868,11 @@
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K32" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -18906,7 +18904,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="49">
         <f t="shared" si="1"/>
@@ -18914,11 +18912,11 @@
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K33" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -18950,7 +18948,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="49">
         <f t="shared" si="1"/>
@@ -18958,11 +18956,11 @@
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K34" s="52">
         <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -19033,20 +19031,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="89" t="s">
+      <c r="E39" s="92"/>
+      <c r="F39" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88" t="s">
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -19267,20 +19265,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="86" t="s">
+      <c r="D50" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="87"/>
-      <c r="F50" s="88" t="s">
+      <c r="E50" s="92"/>
+      <c r="F50" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88" t="s">
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -19523,11 +19521,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -19544,11 +19542,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada_Iniciativas - v0.3.xlsx
+++ b/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada_Iniciativas - v0.3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="8175" tabRatio="892" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="8175" tabRatio="892" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Pl. suporte" sheetId="51" state="hidden" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="130">
   <si>
     <t>Unidade de Medida</t>
   </si>
@@ -465,14 +465,31 @@
   <si>
     <t>Multas5</t>
   </si>
+  <si>
+    <t>PTA</t>
+  </si>
+  <si>
+    <t>Cabine de modelagem</t>
+  </si>
+  <si>
+    <t>Adequação NR12 Serra circular</t>
+  </si>
+  <si>
+    <t>INICIATIVA 2</t>
+  </si>
+  <si>
+    <t>INICIATIVA 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -730,13 +747,13 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -963,20 +980,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -990,17 +1007,32 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Moeda 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Moeda 2" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="6" builtinId="5"/>
-    <cellStyle name="Vírgula 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Vírgula 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Vírgula 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Vírgula 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Vírgula 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Vírgula 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Vírgula 2" xfId="1"/>
+    <cellStyle name="Vírgula 2 2" xfId="2"/>
+    <cellStyle name="Vírgula 2 3" xfId="8"/>
+    <cellStyle name="Vírgula 3" xfId="5"/>
+    <cellStyle name="Vírgula 4" xfId="3"/>
+    <cellStyle name="Vírgula 5" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1377,7 +1409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1490,14 +1522,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H34"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,86 +1818,86 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90" t="s">
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90" t="s">
+      <c r="H15" s="95"/>
+      <c r="I15" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="86" t="s">
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86" t="s">
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87" t="s">
+      <c r="A16" s="97"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87" t="s">
+      <c r="D16" s="96"/>
+      <c r="E16" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87" t="s">
+      <c r="F16" s="96"/>
+      <c r="G16" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="87" t="s">
+      <c r="I16" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="87" t="s">
+      <c r="L16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="87" t="s">
+      <c r="M16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="87" t="s">
+      <c r="N16" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="87" t="s">
+      <c r="O16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="87" t="s">
+      <c r="P16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="87" t="s">
+      <c r="Q16" s="96" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -1878,17 +1910,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -1913,7 +1945,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I18" s="49">
         <f>C18</f>
@@ -1921,11 +1953,11 @@
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="52">
         <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -1957,7 +1989,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" ref="I19:I34" si="1">C19</f>
@@ -1965,11 +1997,11 @@
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="52">
         <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -2001,7 +2033,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="1"/>
@@ -2009,11 +2041,11 @@
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -2045,7 +2077,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="1"/>
@@ -2053,11 +2085,11 @@
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -2089,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I22" s="49">
         <f t="shared" si="1"/>
@@ -2097,11 +2129,11 @@
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K22" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -2133,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I23" s="49">
         <f t="shared" si="1"/>
@@ -2141,11 +2173,11 @@
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K23" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -2177,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" si="1"/>
@@ -2185,11 +2217,11 @@
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K24" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -2221,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
@@ -2229,11 +2261,11 @@
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K25" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -2265,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" si="1"/>
@@ -2273,11 +2305,11 @@
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K26" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -2309,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I27" s="49">
         <f t="shared" si="1"/>
@@ -2317,11 +2349,11 @@
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K27" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -2353,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I28" s="49">
         <f t="shared" si="1"/>
@@ -2361,7 +2393,7 @@
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K28" s="52">
         <f t="shared" si="3"/>
@@ -2401,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I29" s="49">
         <f t="shared" si="1"/>
@@ -2409,11 +2441,11 @@
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K29" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -2445,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" si="1"/>
@@ -2453,11 +2485,11 @@
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K30" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -2489,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="1"/>
@@ -2497,11 +2529,11 @@
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -2533,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="1"/>
@@ -2541,11 +2573,11 @@
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K32" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -2577,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I33" s="49">
         <f t="shared" si="1"/>
@@ -2585,11 +2617,11 @@
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K33" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -2621,7 +2653,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I34" s="49">
         <f t="shared" si="1"/>
@@ -2629,11 +2661,11 @@
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K34" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -3194,11 +3226,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -3215,11 +3247,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3227,14 +3259,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H34"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3523,86 +3555,86 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90" t="s">
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90" t="s">
+      <c r="H15" s="95"/>
+      <c r="I15" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="86" t="s">
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86" t="s">
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87" t="s">
+      <c r="A16" s="97"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87" t="s">
+      <c r="D16" s="96"/>
+      <c r="E16" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87" t="s">
+      <c r="F16" s="96"/>
+      <c r="G16" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="87" t="s">
+      <c r="I16" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="87" t="s">
+      <c r="L16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="87" t="s">
+      <c r="M16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="87" t="s">
+      <c r="N16" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="87" t="s">
+      <c r="O16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="87" t="s">
+      <c r="P16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="87" t="s">
+      <c r="Q16" s="96" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -3615,17 +3647,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -3650,7 +3682,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I18" s="49">
         <f>C18</f>
@@ -3658,11 +3690,11 @@
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="52">
         <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -3694,7 +3726,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" ref="I19:I34" si="1">C19</f>
@@ -3702,11 +3734,11 @@
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="52">
         <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -3738,7 +3770,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="1"/>
@@ -3746,11 +3778,11 @@
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -3782,7 +3814,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="1"/>
@@ -3790,11 +3822,11 @@
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -3826,7 +3858,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I22" s="49">
         <f t="shared" si="1"/>
@@ -3834,11 +3866,11 @@
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K22" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -3870,7 +3902,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I23" s="49">
         <f t="shared" si="1"/>
@@ -3878,11 +3910,11 @@
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K23" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -3914,7 +3946,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" si="1"/>
@@ -3922,11 +3954,11 @@
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K24" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -3958,7 +3990,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
@@ -3966,11 +3998,11 @@
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K25" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -4002,7 +4034,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" si="1"/>
@@ -4010,11 +4042,11 @@
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K26" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -4046,7 +4078,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I27" s="49">
         <f t="shared" si="1"/>
@@ -4054,11 +4086,11 @@
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K27" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -4090,7 +4122,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I28" s="49">
         <f t="shared" si="1"/>
@@ -4098,7 +4130,7 @@
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K28" s="52">
         <f t="shared" si="3"/>
@@ -4138,7 +4170,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I29" s="49">
         <f t="shared" si="1"/>
@@ -4146,11 +4178,11 @@
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K29" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -4182,7 +4214,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" si="1"/>
@@ -4190,11 +4222,11 @@
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K30" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -4226,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="1"/>
@@ -4234,11 +4266,11 @@
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -4270,7 +4302,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="1"/>
@@ -4278,11 +4310,11 @@
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K32" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -4314,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I33" s="49">
         <f t="shared" si="1"/>
@@ -4322,11 +4354,11 @@
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K33" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -4358,7 +4390,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I34" s="49">
         <f t="shared" si="1"/>
@@ -4366,11 +4398,11 @@
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K34" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -4931,11 +4963,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -4952,11 +4984,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4964,14 +4996,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H34"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5260,86 +5292,86 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90" t="s">
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90" t="s">
+      <c r="H15" s="95"/>
+      <c r="I15" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="86" t="s">
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86" t="s">
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87" t="s">
+      <c r="A16" s="97"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87" t="s">
+      <c r="D16" s="96"/>
+      <c r="E16" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87" t="s">
+      <c r="F16" s="96"/>
+      <c r="G16" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="87" t="s">
+      <c r="I16" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="87" t="s">
+      <c r="L16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="87" t="s">
+      <c r="M16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="87" t="s">
+      <c r="N16" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="87" t="s">
+      <c r="O16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="87" t="s">
+      <c r="P16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="87" t="s">
+      <c r="Q16" s="96" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -5352,17 +5384,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -5387,7 +5419,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I18" s="49">
         <f>C18</f>
@@ -5395,11 +5427,11 @@
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="52">
         <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -5431,7 +5463,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" ref="I19:I34" si="1">C19</f>
@@ -5439,11 +5471,11 @@
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="52">
         <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -5475,7 +5507,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="1"/>
@@ -5483,11 +5515,11 @@
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -5519,7 +5551,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="1"/>
@@ -5527,11 +5559,11 @@
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -5563,7 +5595,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I22" s="49">
         <f t="shared" si="1"/>
@@ -5571,11 +5603,11 @@
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K22" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -5607,7 +5639,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I23" s="49">
         <f t="shared" si="1"/>
@@ -5615,11 +5647,11 @@
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K23" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -5651,7 +5683,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" si="1"/>
@@ -5659,11 +5691,11 @@
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K24" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -5695,7 +5727,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
@@ -5703,11 +5735,11 @@
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K25" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -5739,7 +5771,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" si="1"/>
@@ -5747,11 +5779,11 @@
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K26" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -5783,7 +5815,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I27" s="49">
         <f t="shared" si="1"/>
@@ -5791,11 +5823,11 @@
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K27" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -5827,7 +5859,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I28" s="49">
         <f t="shared" si="1"/>
@@ -5835,7 +5867,7 @@
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K28" s="52">
         <f t="shared" si="3"/>
@@ -5875,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I29" s="49">
         <f t="shared" si="1"/>
@@ -5883,11 +5915,11 @@
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K29" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -5919,7 +5951,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" si="1"/>
@@ -5927,11 +5959,11 @@
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K30" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -5963,7 +5995,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="1"/>
@@ -5971,11 +6003,11 @@
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -6007,7 +6039,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="1"/>
@@ -6015,11 +6047,11 @@
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K32" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -6051,7 +6083,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I33" s="49">
         <f t="shared" si="1"/>
@@ -6059,11 +6091,11 @@
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K33" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -6095,7 +6127,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I34" s="49">
         <f t="shared" si="1"/>
@@ -6103,11 +6135,11 @@
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K34" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -6668,11 +6700,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -6689,11 +6721,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6701,13 +6733,15 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:M10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6995,86 +7029,86 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90" t="s">
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90" t="s">
+      <c r="H15" s="95"/>
+      <c r="I15" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="86" t="s">
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86" t="s">
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87" t="s">
+      <c r="A16" s="97"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87" t="s">
+      <c r="D16" s="96"/>
+      <c r="E16" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87" t="s">
+      <c r="F16" s="96"/>
+      <c r="G16" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="87" t="s">
+      <c r="I16" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="87" t="s">
+      <c r="L16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="87" t="s">
+      <c r="M16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="87" t="s">
+      <c r="N16" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="87" t="s">
+      <c r="O16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="87" t="s">
+      <c r="P16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="87" t="s">
+      <c r="Q16" s="96" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -7087,17 +7121,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -7122,7 +7156,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I18" s="49">
         <f>C18</f>
@@ -7130,11 +7164,11 @@
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="52">
         <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -7166,7 +7200,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" ref="I19:I34" si="1">C19</f>
@@ -7174,11 +7208,11 @@
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="52">
         <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -7210,7 +7244,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="1"/>
@@ -7218,11 +7252,11 @@
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -7254,7 +7288,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="1"/>
@@ -7262,11 +7296,11 @@
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -7298,7 +7332,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I22" s="49">
         <f t="shared" si="1"/>
@@ -7306,11 +7340,11 @@
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K22" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -7342,7 +7376,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I23" s="49">
         <f t="shared" si="1"/>
@@ -7350,11 +7384,11 @@
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K23" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -7386,7 +7420,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" si="1"/>
@@ -7394,11 +7428,11 @@
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K24" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -7430,7 +7464,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
@@ -7438,11 +7472,11 @@
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K25" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -7474,7 +7508,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" si="1"/>
@@ -7482,11 +7516,11 @@
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K26" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -7518,7 +7552,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I27" s="49">
         <f t="shared" si="1"/>
@@ -7526,11 +7560,11 @@
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K27" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -7562,7 +7596,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I28" s="49">
         <f t="shared" si="1"/>
@@ -7570,7 +7604,7 @@
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K28" s="52">
         <f t="shared" si="3"/>
@@ -7610,7 +7644,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I29" s="49">
         <f t="shared" si="1"/>
@@ -7618,11 +7652,11 @@
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K29" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -7654,7 +7688,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" si="1"/>
@@ -7662,11 +7696,11 @@
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K30" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -7698,7 +7732,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="1"/>
@@ -7706,11 +7740,11 @@
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -7742,7 +7776,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="1"/>
@@ -7750,11 +7784,11 @@
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K32" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -7786,7 +7820,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I33" s="49">
         <f t="shared" si="1"/>
@@ -7794,11 +7828,11 @@
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K33" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -7830,7 +7864,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I34" s="49">
         <f t="shared" si="1"/>
@@ -7838,11 +7872,11 @@
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K34" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -8403,11 +8437,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -8424,11 +8458,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8436,14 +8470,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF7574"/>
   </sheetPr>
   <dimension ref="B1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8525,7 +8559,9 @@
       <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="86" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" s="12" t="b">
         <v>1</v>
       </c>
@@ -8535,7 +8571,9 @@
       <c r="B13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="86" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" s="13" t="b">
         <v>1</v>
       </c>
@@ -8545,7 +8583,9 @@
       <c r="B14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="D14" s="13" t="b">
         <v>1</v>
       </c>
@@ -8627,19 +8667,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Pl. suporte'!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>D13:D21</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Pl. suporte'!$B$2:$B$10</xm:f>
           </x14:formula1>
           <xm:sqref>C7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Pl. suporte'!$C$2:$C$11</xm:f>
           </x14:formula1>
@@ -8652,14 +8692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF7574"/>
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:O9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9137,14 +9177,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9340,7 +9380,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="32">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="E9" s="24">
         <v>0</v>
@@ -9385,32 +9425,22 @@
         <v>0</v>
       </c>
       <c r="E10" s="32">
-        <v>1000</v>
+        <v>10500</v>
       </c>
       <c r="F10" s="32">
-        <v>1000</v>
+        <v>10500</v>
       </c>
       <c r="G10" s="32">
-        <v>1000</v>
+        <v>10500</v>
       </c>
       <c r="H10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="J10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="L10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="M10" s="32">
-        <v>1000</v>
-      </c>
+        <v>10500</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="3"/>
     </row>
     <row r="13" spans="1:17" s="30" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -9432,86 +9462,86 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90" t="s">
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90" t="s">
+      <c r="H15" s="95"/>
+      <c r="I15" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="86" t="s">
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86" t="s">
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87" t="s">
+      <c r="A16" s="97"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87" t="s">
+      <c r="D16" s="96"/>
+      <c r="E16" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87" t="s">
+      <c r="F16" s="96"/>
+      <c r="G16" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="87" t="s">
+      <c r="I16" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="87" t="s">
+      <c r="L16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="87" t="s">
+      <c r="M16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="87" t="s">
+      <c r="N16" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="87" t="s">
+      <c r="O16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="87" t="s">
+      <c r="P16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="87" t="s">
+      <c r="Q16" s="96" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="79" t="s">
         <v>71</v>
       </c>
@@ -9524,17 +9554,17 @@
       <c r="F17" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -9544,34 +9574,35 @@
         <v>53</v>
       </c>
       <c r="C18" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D18" s="47">
-        <v>10</v>
-      </c>
-      <c r="E18" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F18" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G18" s="49">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E18" s="87">
+        <v>0</v>
+      </c>
+      <c r="F18" s="87">
+        <v>1.8963006603889799E-3</v>
+      </c>
+      <c r="G18" s="90">
+        <f>I18</f>
+        <v>1</v>
       </c>
       <c r="H18" s="50">
         <v>0</v>
       </c>
       <c r="I18" s="49">
-        <f>C18</f>
-        <v>10</v>
+        <f>D18</f>
+        <v>1</v>
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
         <v>0</v>
       </c>
       <c r="K18" s="52">
-        <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>0.1</v>
+        <f>IFERROR((1-(J18/I18))*F18,0)</f>
+        <v>1.8963006603889799E-3</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -9588,34 +9619,35 @@
         <v>54</v>
       </c>
       <c r="C19" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D19" s="47">
-        <v>10</v>
-      </c>
-      <c r="E19" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G19" s="49">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E19" s="87">
+        <v>0</v>
+      </c>
+      <c r="F19" s="87">
+        <v>0</v>
+      </c>
+      <c r="G19" s="90">
+        <f t="shared" ref="G19:G34" si="1">I19</f>
+        <v>0</v>
       </c>
       <c r="H19" s="50">
         <v>0</v>
       </c>
       <c r="I19" s="49">
-        <f t="shared" ref="I19:I34" si="1">C19</f>
-        <v>10</v>
+        <f>C19</f>
+        <v>0</v>
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
         <v>0</v>
       </c>
       <c r="K19" s="52">
-        <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>0.1</v>
+        <f>IFERROR((1-(J19/I19))*E19,0)</f>
+        <v>0</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -9632,34 +9664,35 @@
         <v>55</v>
       </c>
       <c r="C20" s="47">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D20" s="47">
-        <v>10</v>
-      </c>
-      <c r="E20" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G20" s="49">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E20" s="87">
+        <v>4.6029919447641001E-3</v>
+      </c>
+      <c r="F20" s="87">
+        <v>3.8880041823469501E-3</v>
+      </c>
+      <c r="G20" s="90">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="H20" s="50">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I20" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>D20</f>
+        <v>2</v>
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K20" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J20/I20))*F20,0)</f>
+        <v>3.6936039732296025E-3</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -9676,34 +9709,35 @@
         <v>56</v>
       </c>
       <c r="C21" s="47">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D21" s="47">
-        <v>10</v>
-      </c>
-      <c r="E21" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F21" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G21" s="49">
-        <v>10</v>
+        <v>0.6</v>
+      </c>
+      <c r="E21" s="87">
+        <v>2.3014959723820501E-3</v>
+      </c>
+      <c r="F21" s="87">
+        <v>1.13922422983709E-3</v>
+      </c>
+      <c r="G21" s="90">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H21" s="50">
         <v>0</v>
       </c>
       <c r="I21" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>C21</f>
+        <v>1</v>
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K21" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J21/I21))*E21,0)</f>
+        <v>2.3014959723820501E-3</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -9720,34 +9754,35 @@
         <v>57</v>
       </c>
       <c r="C22" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D22" s="47">
-        <v>10</v>
-      </c>
-      <c r="E22" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G22" s="49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E22" s="89">
+        <f>2/508.25</f>
+        <v>3.9350713231677322E-3</v>
+      </c>
+      <c r="F22" s="87">
+        <v>8.5989759354908497E-3</v>
+      </c>
+      <c r="G22" s="90">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H22" s="50">
         <v>0</v>
       </c>
       <c r="I22" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K22" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J22/I22))*E22,0)</f>
+        <v>3.9350713231677322E-3</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -9764,34 +9799,35 @@
         <v>58</v>
       </c>
       <c r="C23" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D23" s="47">
-        <v>10</v>
-      </c>
-      <c r="E23" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F23" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G23" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E23" s="87">
+        <v>0</v>
+      </c>
+      <c r="F23" s="87">
+        <v>0</v>
+      </c>
+      <c r="G23" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H23" s="50">
         <v>0</v>
       </c>
       <c r="I23" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>C23</f>
+        <v>0</v>
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K23" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J23/I23))*E23,0)</f>
+        <v>0</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -9808,34 +9844,35 @@
         <v>59</v>
       </c>
       <c r="C24" s="47">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D24" s="47">
-        <v>10</v>
-      </c>
-      <c r="E24" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F24" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G24" s="49">
-        <v>2</v>
+        <v>22.6</v>
+      </c>
+      <c r="E24" s="87">
+        <v>3.6823935558112801E-2</v>
+      </c>
+      <c r="F24" s="87">
+        <v>4.4044433404939201E-2</v>
+      </c>
+      <c r="G24" s="90">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="H24" s="50">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I24" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" ref="I24:I31" si="3">C24</f>
+        <v>16</v>
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K24" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" ref="K24:K31" si="4">IFERROR((1-(J24/I24))*E24,0)</f>
+        <v>3.4982738780207162E-2</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -9852,34 +9889,35 @@
         <v>60</v>
       </c>
       <c r="C25" s="47">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D25" s="47">
-        <v>10</v>
-      </c>
-      <c r="E25" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F25" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G25" s="49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E25" s="87">
+        <v>4.6029919447641001E-3</v>
+      </c>
+      <c r="F25" s="87">
+        <v>8.4702854667588201E-3</v>
+      </c>
+      <c r="G25" s="90">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H25" s="50">
         <v>0</v>
       </c>
       <c r="I25" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K25" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>4.6029919447641001E-3</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -9896,34 +9934,35 @@
         <v>61</v>
       </c>
       <c r="C26" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D26" s="47">
-        <v>10</v>
-      </c>
-      <c r="E26" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F26" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G26" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E26" s="87">
+        <v>0</v>
+      </c>
+      <c r="F26" s="87">
+        <v>0</v>
+      </c>
+      <c r="G26" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H26" s="50">
         <v>0</v>
       </c>
       <c r="I26" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K26" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -9940,34 +9979,35 @@
         <v>62</v>
       </c>
       <c r="C27" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D27" s="47">
-        <v>10</v>
-      </c>
-      <c r="E27" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F27" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G27" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E27" s="87">
+        <v>0</v>
+      </c>
+      <c r="F27" s="87">
+        <v>0</v>
+      </c>
+      <c r="G27" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H27" s="50">
         <v>0</v>
       </c>
       <c r="I27" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K27" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -9987,40 +10027,38 @@
         <v>0</v>
       </c>
       <c r="D28" s="47">
-        <v>0</v>
-      </c>
-      <c r="E28" s="48">
-        <v>0</v>
-      </c>
-      <c r="F28" s="48">
-        <v>0</v>
-      </c>
-      <c r="G28" s="49">
-        <v>2</v>
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="89">
+        <f>I28/508.25</f>
+        <v>2.6233808821118216E-5</v>
+      </c>
+      <c r="F28" s="87">
+        <v>4.0997608472839102E-4</v>
+      </c>
+      <c r="G28" s="90">
+        <f>I28</f>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="H28" s="50">
-        <v>0</v>
-      </c>
-      <c r="I28" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="I28" s="88">
+        <f>1/75</f>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.6666666666666675E-4</v>
       </c>
       <c r="K28" s="52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="56">
-        <v>0.1</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>2.4922118380062303E-5</v>
+      </c>
+      <c r="L28" s="56"/>
       <c r="M28" s="55"/>
       <c r="N28" s="55"/>
-      <c r="O28" s="82">
-        <v>0.5</v>
-      </c>
+      <c r="O28" s="82"/>
       <c r="P28" s="57"/>
       <c r="Q28" s="57"/>
     </row>
@@ -10032,34 +10070,35 @@
         <v>64</v>
       </c>
       <c r="C29" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D29" s="47">
-        <v>10</v>
-      </c>
-      <c r="E29" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F29" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G29" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="87">
+        <v>0</v>
+      </c>
+      <c r="F29" s="87">
+        <v>0</v>
+      </c>
+      <c r="G29" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H29" s="50">
         <v>0</v>
       </c>
       <c r="I29" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J29/I29))*E29,0)</f>
+        <v>0</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -10076,34 +10115,35 @@
         <v>65</v>
       </c>
       <c r="C30" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D30" s="47">
-        <v>10</v>
-      </c>
-      <c r="E30" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F30" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G30" s="49">
-        <v>2</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="87">
+        <v>8.8046059746780293E-3</v>
+      </c>
+      <c r="G30" s="90">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H30" s="50">
         <v>0</v>
       </c>
       <c r="I30" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>D30</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J30/I30))*F30,0)</f>
+        <v>8.8046059746780293E-3</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -10120,34 +10160,35 @@
         <v>66</v>
       </c>
       <c r="C31" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D31" s="47">
-        <v>10</v>
-      </c>
-      <c r="E31" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F31" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G31" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E31" s="87">
+        <v>0</v>
+      </c>
+      <c r="F31" s="87">
+        <v>0</v>
+      </c>
+      <c r="G31" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H31" s="50">
         <v>0</v>
       </c>
       <c r="I31" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -10164,34 +10205,35 @@
         <v>67</v>
       </c>
       <c r="C32" s="47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D32" s="47">
-        <v>10</v>
-      </c>
-      <c r="E32" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F32" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G32" s="49">
-        <v>2</v>
+        <v>20.8</v>
+      </c>
+      <c r="E32" s="87">
+        <v>2.7617951668584599E-2</v>
+      </c>
+      <c r="F32" s="87">
+        <v>4.0548154902741898E-2</v>
+      </c>
+      <c r="G32" s="90">
+        <f t="shared" si="1"/>
+        <v>20.8</v>
       </c>
       <c r="H32" s="50">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I32" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>D32</f>
+        <v>20.8</v>
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K32" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J32/I32))*F32,0)</f>
+        <v>3.8520747157604798E-2</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -10208,34 +10250,35 @@
         <v>68</v>
       </c>
       <c r="C33" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D33" s="47">
-        <v>10</v>
-      </c>
-      <c r="E33" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F33" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G33" s="49">
         <v>2</v>
       </c>
+      <c r="E33" s="87">
+        <v>0</v>
+      </c>
+      <c r="F33" s="87">
+        <v>3.8452806955331302E-3</v>
+      </c>
+      <c r="G33" s="90">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="H33" s="50">
         <v>0</v>
       </c>
       <c r="I33" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>D33</f>
+        <v>2</v>
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K33" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J33/I33))*F33,0)</f>
+        <v>3.8452806955331302E-3</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -10252,34 +10295,35 @@
         <v>106</v>
       </c>
       <c r="C34" s="47">
-        <v>10</v>
+        <v>664.56</v>
       </c>
       <c r="D34" s="47">
-        <v>10</v>
-      </c>
-      <c r="E34" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F34" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G34" s="49">
-        <v>2</v>
+        <v>1124.52</v>
+      </c>
+      <c r="E34" s="87">
+        <v>1.5294821634062099</v>
+      </c>
+      <c r="F34" s="87">
+        <v>2.1710862737652898</v>
+      </c>
+      <c r="G34" s="90">
+        <f t="shared" si="1"/>
+        <v>664.56</v>
       </c>
       <c r="H34" s="50">
         <v>0</v>
       </c>
       <c r="I34" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>C34</f>
+        <v>664.56</v>
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K34" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J34/I34))*E34,0)</f>
+        <v>1.5294821634062099</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -10414,13 +10458,19 @@
       <c r="C41" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="D41" s="18">
+        <v>0</v>
+      </c>
+      <c r="E41" s="18">
+        <v>0</v>
+      </c>
+      <c r="F41" s="18">
+        <v>0</v>
+      </c>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
@@ -10438,13 +10488,21 @@
       <c r="C42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="D42" s="18">
+        <v>0</v>
+      </c>
+      <c r="E42" s="18">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="F42" s="18">
+        <f>E42</f>
+        <v>0.6</v>
+      </c>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
       <c r="I42" s="32">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
@@ -10462,13 +10520,21 @@
       <c r="C43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="D43" s="18">
+        <v>0</v>
+      </c>
+      <c r="E43" s="18">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="F43" s="18">
+        <f>E43</f>
+        <v>0.6</v>
+      </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
       <c r="I43" s="32">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
@@ -10486,13 +10552,19 @@
       <c r="C44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
+      <c r="D44" s="18">
+        <v>0</v>
+      </c>
+      <c r="E44" s="18">
+        <v>0</v>
+      </c>
+      <c r="F44" s="18">
+        <v>0</v>
+      </c>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
@@ -10510,13 +10582,19 @@
       <c r="C45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="D45" s="18">
+        <v>0</v>
+      </c>
+      <c r="E45" s="18">
+        <v>0</v>
+      </c>
+      <c r="F45" s="18">
+        <v>0</v>
+      </c>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
@@ -10534,9 +10612,15 @@
       <c r="C46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="D46" s="18">
+        <v>0</v>
+      </c>
+      <c r="E46" s="18">
+        <v>0</v>
+      </c>
+      <c r="F46" s="18">
+        <v>0</v>
+      </c>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
       <c r="I46" s="32">
@@ -10654,13 +10738,13 @@
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
       <c r="I52" s="32">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="J52" s="32">
-        <v>196</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K52" s="32">
-        <v>159</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>80</v>
@@ -10682,13 +10766,13 @@
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
       <c r="I53" s="32">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="J53" s="32">
-        <v>123</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K53" s="32">
-        <v>193</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>83</v>
@@ -10710,13 +10794,13 @@
       <c r="G54" s="24"/>
       <c r="H54" s="24"/>
       <c r="I54" s="32">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="J54" s="32">
-        <v>138</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K54" s="32">
-        <v>161</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>84</v>
@@ -10734,17 +10818,26 @@
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="F55" s="18">
+        <v>0</v>
+      </c>
+      <c r="G55" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H55" s="18">
+        <v>-9.9999999999999995E-7</v>
+      </c>
       <c r="I55" s="32">
-        <v>138</v>
+        <f>7000+14*12*52</f>
+        <v>15736</v>
       </c>
       <c r="J55" s="32">
-        <v>181</v>
+        <f>7000+14*24*52</f>
+        <v>24472</v>
       </c>
       <c r="K55" s="32">
-        <v>139</v>
+        <f>7000+14*6*52</f>
+        <v>11368</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>81</v>
@@ -10762,17 +10855,23 @@
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="F56" s="18">
+        <v>0</v>
+      </c>
+      <c r="G56" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H56" s="18">
+        <v>-9.9999999999999995E-7</v>
+      </c>
       <c r="I56" s="32">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="J56" s="32">
-        <v>140</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K56" s="32">
-        <v>134</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>82</v>
@@ -10790,17 +10889,23 @@
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
+      <c r="F57" s="18">
+        <v>0</v>
+      </c>
+      <c r="G57" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H57" s="18">
+        <v>-9.9999999999999995E-7</v>
+      </c>
       <c r="I57" s="32">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="J57" s="32">
-        <v>139</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K57" s="32">
-        <v>114</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>19</v>
@@ -10818,17 +10923,23 @@
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="F58" s="18">
+        <v>0</v>
+      </c>
+      <c r="G58" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H58" s="18">
+        <v>-9.9999999999999995E-7</v>
+      </c>
       <c r="I58" s="32">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="J58" s="32">
-        <v>178</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K58" s="32">
-        <v>103</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>17</v>
@@ -10836,24 +10947,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="B15:B17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="M16:M17"/>
@@ -10862,6 +10955,24 @@
     <mergeCell ref="O16:O17"/>
     <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I50:K50"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10869,14 +10980,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H34"/>
+    <sheetView showGridLines="0" topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D41" activeCellId="3" sqref="I41 I44:I46 D44:F46 D41:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10911,7 +11022,7 @@
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B2" s="74"/>
       <c r="C2" s="71"/>
@@ -11073,7 +11184,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="32">
-        <v>100000</v>
+        <v>55000</v>
       </c>
       <c r="E9" s="24">
         <v>0</v>
@@ -11117,33 +11228,15 @@
       <c r="D10" s="24">
         <v>0</v>
       </c>
-      <c r="E10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="J10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="L10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="M10" s="32">
-        <v>1000</v>
-      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="3"/>
     </row>
     <row r="13" spans="1:17" s="40" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -11165,86 +11258,86 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90" t="s">
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90" t="s">
+      <c r="H15" s="95"/>
+      <c r="I15" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="86" t="s">
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86" t="s">
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87" t="s">
+      <c r="A16" s="97"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87" t="s">
+      <c r="D16" s="96"/>
+      <c r="E16" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87" t="s">
+      <c r="F16" s="96"/>
+      <c r="G16" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="87" t="s">
+      <c r="I16" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="87" t="s">
+      <c r="L16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="87" t="s">
+      <c r="M16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="87" t="s">
+      <c r="N16" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="87" t="s">
+      <c r="O16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="87" t="s">
+      <c r="P16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="87" t="s">
+      <c r="Q16" s="96" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -11257,17 +11350,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -11277,34 +11370,35 @@
         <v>53</v>
       </c>
       <c r="C18" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D18" s="47">
-        <v>10</v>
-      </c>
-      <c r="E18" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F18" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G18" s="49">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E18" s="87">
+        <v>0</v>
+      </c>
+      <c r="F18" s="87">
+        <v>1.8963006603889799E-3</v>
+      </c>
+      <c r="G18" s="90">
+        <f>I18</f>
+        <v>1</v>
       </c>
       <c r="H18" s="50">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I18" s="49">
-        <f>C18</f>
-        <v>10</v>
+        <f>D18</f>
+        <v>1</v>
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K18" s="52">
-        <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>0.1</v>
+        <f>IFERROR((1-(J18/I18))*F18,0)</f>
+        <v>1.8583746471812002E-3</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -11321,34 +11415,35 @@
         <v>54</v>
       </c>
       <c r="C19" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D19" s="47">
-        <v>10</v>
-      </c>
-      <c r="E19" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G19" s="49">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E19" s="87">
+        <v>0</v>
+      </c>
+      <c r="F19" s="87">
+        <v>0</v>
+      </c>
+      <c r="G19" s="90">
+        <f t="shared" ref="G19:G34" si="1">I19</f>
+        <v>0</v>
       </c>
       <c r="H19" s="50">
         <v>0</v>
       </c>
       <c r="I19" s="49">
-        <f t="shared" ref="I19:I34" si="1">C19</f>
-        <v>10</v>
+        <f>C19</f>
+        <v>0</v>
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
         <v>0</v>
       </c>
       <c r="K19" s="52">
-        <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>0.1</v>
+        <f>IFERROR((1-(J19/I19))*E19,0)</f>
+        <v>0</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -11365,34 +11460,35 @@
         <v>55</v>
       </c>
       <c r="C20" s="47">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D20" s="47">
-        <v>10</v>
-      </c>
-      <c r="E20" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G20" s="49">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E20" s="87">
+        <v>4.6029919447641001E-3</v>
+      </c>
+      <c r="F20" s="87">
+        <v>3.8880041823469501E-3</v>
+      </c>
+      <c r="G20" s="90">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="H20" s="50">
         <v>0</v>
       </c>
       <c r="I20" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>D20</f>
+        <v>2</v>
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K20" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J20/I20))*F20,0)</f>
+        <v>3.8880041823469501E-3</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -11409,34 +11505,35 @@
         <v>56</v>
       </c>
       <c r="C21" s="47">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D21" s="47">
-        <v>10</v>
-      </c>
-      <c r="E21" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F21" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G21" s="49">
-        <v>10</v>
+        <v>0.6</v>
+      </c>
+      <c r="E21" s="87">
+        <v>2.3014959723820501E-3</v>
+      </c>
+      <c r="F21" s="87">
+        <v>1.13922422983709E-3</v>
+      </c>
+      <c r="G21" s="90">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H21" s="50">
         <v>0</v>
       </c>
       <c r="I21" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>C21</f>
+        <v>1</v>
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K21" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J21/I21))*E21,0)</f>
+        <v>2.3014959723820501E-3</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -11453,34 +11550,35 @@
         <v>57</v>
       </c>
       <c r="C22" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D22" s="47">
-        <v>10</v>
-      </c>
-      <c r="E22" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G22" s="49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E22" s="89">
+        <f>2/508.25</f>
+        <v>3.9350713231677322E-3</v>
+      </c>
+      <c r="F22" s="87">
+        <v>8.5989759354908497E-3</v>
+      </c>
+      <c r="G22" s="90">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H22" s="50">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I22" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K22" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J22/I22))*E22,0)</f>
+        <v>3.8563698967043775E-3</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -11497,34 +11595,35 @@
         <v>58</v>
       </c>
       <c r="C23" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D23" s="47">
-        <v>10</v>
-      </c>
-      <c r="E23" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F23" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G23" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E23" s="87">
+        <v>0</v>
+      </c>
+      <c r="F23" s="87">
+        <v>0</v>
+      </c>
+      <c r="G23" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H23" s="50">
         <v>0</v>
       </c>
       <c r="I23" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>C23</f>
+        <v>0</v>
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K23" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J23/I23))*E23,0)</f>
+        <v>0</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -11541,34 +11640,35 @@
         <v>59</v>
       </c>
       <c r="C24" s="47">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D24" s="47">
-        <v>10</v>
-      </c>
-      <c r="E24" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F24" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G24" s="49">
-        <v>2</v>
+        <v>22.6</v>
+      </c>
+      <c r="E24" s="87">
+        <v>3.6823935558112801E-2</v>
+      </c>
+      <c r="F24" s="87">
+        <v>4.4044433404939201E-2</v>
+      </c>
+      <c r="G24" s="90">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="H24" s="50">
         <v>0</v>
       </c>
       <c r="I24" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" ref="I24:I31" si="3">C24</f>
+        <v>16</v>
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K24" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" ref="K24:K31" si="4">IFERROR((1-(J24/I24))*E24,0)</f>
+        <v>3.6823935558112801E-2</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -11585,34 +11685,35 @@
         <v>60</v>
       </c>
       <c r="C25" s="47">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D25" s="47">
-        <v>10</v>
-      </c>
-      <c r="E25" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F25" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G25" s="49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E25" s="87">
+        <v>4.6029919447641001E-3</v>
+      </c>
+      <c r="F25" s="87">
+        <v>8.4702854667588201E-3</v>
+      </c>
+      <c r="G25" s="90">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H25" s="50">
         <v>0</v>
       </c>
       <c r="I25" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K25" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>4.6029919447641001E-3</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -11629,34 +11730,35 @@
         <v>61</v>
       </c>
       <c r="C26" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D26" s="47">
-        <v>10</v>
-      </c>
-      <c r="E26" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F26" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G26" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E26" s="87">
+        <v>0</v>
+      </c>
+      <c r="F26" s="87">
+        <v>0</v>
+      </c>
+      <c r="G26" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H26" s="50">
         <v>0</v>
       </c>
       <c r="I26" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K26" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -11673,34 +11775,35 @@
         <v>62</v>
       </c>
       <c r="C27" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D27" s="47">
-        <v>10</v>
-      </c>
-      <c r="E27" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F27" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G27" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E27" s="87">
+        <v>0</v>
+      </c>
+      <c r="F27" s="87">
+        <v>0</v>
+      </c>
+      <c r="G27" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H27" s="50">
         <v>0</v>
       </c>
       <c r="I27" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K27" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -11720,40 +11823,38 @@
         <v>0</v>
       </c>
       <c r="D28" s="47">
-        <v>0</v>
-      </c>
-      <c r="E28" s="48">
-        <v>0</v>
-      </c>
-      <c r="F28" s="48">
-        <v>0</v>
-      </c>
-      <c r="G28" s="49">
-        <v>2</v>
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="89">
+        <f>I28/508.25</f>
+        <v>2.6233808821118216E-5</v>
+      </c>
+      <c r="F28" s="87">
+        <v>4.0997608472839102E-4</v>
+      </c>
+      <c r="G28" s="90">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="H28" s="50">
         <v>0</v>
       </c>
-      <c r="I28" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="I28" s="88">
+        <f>1/75</f>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K28" s="52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="56">
-        <v>0.1</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>2.6233808821118216E-5</v>
+      </c>
+      <c r="L28" s="56"/>
       <c r="M28" s="55"/>
       <c r="N28" s="55"/>
-      <c r="O28" s="82">
-        <v>0.5</v>
-      </c>
+      <c r="O28" s="82"/>
       <c r="P28" s="57"/>
       <c r="Q28" s="57"/>
     </row>
@@ -11765,34 +11866,35 @@
         <v>64</v>
       </c>
       <c r="C29" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D29" s="47">
-        <v>10</v>
-      </c>
-      <c r="E29" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F29" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G29" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="87">
+        <v>0</v>
+      </c>
+      <c r="F29" s="87">
+        <v>0</v>
+      </c>
+      <c r="G29" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H29" s="50">
         <v>0</v>
       </c>
       <c r="I29" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J29/I29))*E29,0)</f>
+        <v>0</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -11809,34 +11911,35 @@
         <v>65</v>
       </c>
       <c r="C30" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D30" s="47">
-        <v>10</v>
-      </c>
-      <c r="E30" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F30" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G30" s="49">
-        <v>2</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="87">
+        <v>8.8046059746780293E-3</v>
+      </c>
+      <c r="G30" s="90">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H30" s="50">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I30" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>D30</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="K30" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J30/I30))*F30,0)</f>
+        <v>8.7165599149312493E-3</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -11853,34 +11956,35 @@
         <v>66</v>
       </c>
       <c r="C31" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D31" s="47">
-        <v>10</v>
-      </c>
-      <c r="E31" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F31" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G31" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E31" s="87">
+        <v>0</v>
+      </c>
+      <c r="F31" s="87">
+        <v>0</v>
+      </c>
+      <c r="G31" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H31" s="50">
         <v>0</v>
       </c>
       <c r="I31" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -11897,34 +12001,35 @@
         <v>67</v>
       </c>
       <c r="C32" s="47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D32" s="47">
-        <v>10</v>
-      </c>
-      <c r="E32" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F32" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G32" s="49">
-        <v>2</v>
+        <v>20.8</v>
+      </c>
+      <c r="E32" s="87">
+        <v>2.7617951668584599E-2</v>
+      </c>
+      <c r="F32" s="87">
+        <v>4.0548154902741898E-2</v>
+      </c>
+      <c r="G32" s="90">
+        <f t="shared" si="1"/>
+        <v>20.8</v>
       </c>
       <c r="H32" s="50">
         <v>0</v>
       </c>
       <c r="I32" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>D32</f>
+        <v>20.8</v>
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K32" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J32/I32))*F32,0)</f>
+        <v>4.0548154902741898E-2</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -11941,34 +12046,35 @@
         <v>68</v>
       </c>
       <c r="C33" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D33" s="47">
-        <v>10</v>
-      </c>
-      <c r="E33" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F33" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G33" s="49">
         <v>2</v>
       </c>
+      <c r="E33" s="87">
+        <v>0</v>
+      </c>
+      <c r="F33" s="87">
+        <v>3.8452806955331302E-3</v>
+      </c>
+      <c r="G33" s="90">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="H33" s="50">
         <v>0</v>
       </c>
       <c r="I33" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>D33</f>
+        <v>2</v>
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K33" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J33/I33))*F33,0)</f>
+        <v>3.8452806955331302E-3</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -11985,34 +12091,35 @@
         <v>106</v>
       </c>
       <c r="C34" s="47">
-        <v>10</v>
+        <v>664.56</v>
       </c>
       <c r="D34" s="47">
-        <v>10</v>
-      </c>
-      <c r="E34" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F34" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G34" s="49">
-        <v>2</v>
+        <v>1124.52</v>
+      </c>
+      <c r="E34" s="87">
+        <v>1.5294821634062099</v>
+      </c>
+      <c r="F34" s="87">
+        <v>2.1710862737652898</v>
+      </c>
+      <c r="G34" s="90">
+        <f t="shared" si="1"/>
+        <v>664.56</v>
       </c>
       <c r="H34" s="50">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I34" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>C34</f>
+        <v>664.56</v>
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.6456</v>
       </c>
       <c r="K34" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J34/I34))*E34,0)</f>
+        <v>1.5141873417721479</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -12151,13 +12258,19 @@
       <c r="C41" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="D41" s="18">
+        <v>0</v>
+      </c>
+      <c r="E41" s="18">
+        <v>0</v>
+      </c>
+      <c r="F41" s="18">
+        <v>0</v>
+      </c>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
@@ -12175,13 +12288,20 @@
       <c r="C42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="D42" s="18">
+        <v>0</v>
+      </c>
+      <c r="E42" s="18">
+        <v>0</v>
+      </c>
+      <c r="F42" s="18">
+        <v>0</v>
+      </c>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
       <c r="I42" s="32">
-        <v>0.4</v>
+        <f>F42*0.7</f>
+        <v>0</v>
       </c>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
@@ -12199,13 +12319,21 @@
       <c r="C43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="D43" s="18">
+        <v>0</v>
+      </c>
+      <c r="E43" s="18">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="F43" s="18">
+        <f>E43</f>
+        <v>0.6</v>
+      </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
       <c r="I43" s="32">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
@@ -12223,13 +12351,19 @@
       <c r="C44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
+      <c r="D44" s="18">
+        <v>0</v>
+      </c>
+      <c r="E44" s="18">
+        <v>0</v>
+      </c>
+      <c r="F44" s="18">
+        <v>0</v>
+      </c>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
@@ -12247,13 +12381,19 @@
       <c r="C45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="D45" s="18">
+        <v>0</v>
+      </c>
+      <c r="E45" s="18">
+        <v>0</v>
+      </c>
+      <c r="F45" s="18">
+        <v>0</v>
+      </c>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
@@ -12271,9 +12411,15 @@
       <c r="C46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="D46" s="18">
+        <v>0</v>
+      </c>
+      <c r="E46" s="18">
+        <v>0</v>
+      </c>
+      <c r="F46" s="18">
+        <v>0</v>
+      </c>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
       <c r="I46" s="32">
@@ -12391,13 +12537,13 @@
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
       <c r="I52" s="32">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="J52" s="32">
-        <v>196</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K52" s="32">
-        <v>159</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>80</v>
@@ -12419,13 +12565,13 @@
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
       <c r="I53" s="32">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="J53" s="32">
-        <v>123</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K53" s="32">
-        <v>193</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>83</v>
@@ -12447,13 +12593,13 @@
       <c r="G54" s="24"/>
       <c r="H54" s="24"/>
       <c r="I54" s="32">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="J54" s="32">
-        <v>138</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K54" s="32">
-        <v>161</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>84</v>
@@ -12471,17 +12617,25 @@
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="F55" s="18">
+        <v>0</v>
+      </c>
+      <c r="G55" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H55" s="18">
+        <v>-9.9999999999999995E-7</v>
+      </c>
       <c r="I55" s="32">
-        <v>138</v>
+        <v>2000</v>
       </c>
       <c r="J55" s="32">
-        <v>181</v>
+        <f>I55+0.00001</f>
+        <v>2000.00001</v>
       </c>
       <c r="K55" s="32">
-        <v>139</v>
+        <f>I55-0.00001</f>
+        <v>1999.99999</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>81</v>
@@ -12499,17 +12653,23 @@
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="F56" s="18">
+        <v>0</v>
+      </c>
+      <c r="G56" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H56" s="18">
+        <v>-9.9999999999999995E-7</v>
+      </c>
       <c r="I56" s="32">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="J56" s="32">
-        <v>140</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K56" s="32">
-        <v>134</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>82</v>
@@ -12527,17 +12687,23 @@
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
+      <c r="F57" s="18">
+        <v>0</v>
+      </c>
+      <c r="G57" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H57" s="18">
+        <v>-9.9999999999999995E-7</v>
+      </c>
       <c r="I57" s="32">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="J57" s="32">
-        <v>139</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K57" s="32">
-        <v>114</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>19</v>
@@ -12555,17 +12721,25 @@
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="F58" s="18">
+        <v>0</v>
+      </c>
+      <c r="G58" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H58" s="18">
+        <v>-9.9999999999999995E-7</v>
+      </c>
       <c r="I58" s="32">
-        <v>152</v>
+        <v>5000</v>
       </c>
       <c r="J58" s="32">
-        <v>178</v>
+        <f>I58+0.00001</f>
+        <v>5000.0000099999997</v>
       </c>
       <c r="K58" s="32">
-        <v>103</v>
+        <f>I58-0.00001</f>
+        <v>4999.9999900000003</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>17</v>
@@ -12573,11 +12747,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -12594,11 +12768,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12606,14 +12780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H34"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12648,7 +12822,7 @@
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B2" s="74"/>
       <c r="C2" s="71"/>
@@ -12810,7 +12984,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="32">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="E9" s="24">
         <v>0</v>
@@ -12855,7 +13029,8 @@
         <v>0</v>
       </c>
       <c r="E10" s="32">
-        <v>1000</v>
+        <f>D9*0.05</f>
+        <v>1250</v>
       </c>
       <c r="F10" s="32">
         <v>1000</v>
@@ -12866,21 +13041,11 @@
       <c r="H10" s="32">
         <v>1000</v>
       </c>
-      <c r="I10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="J10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="L10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="M10" s="32">
-        <v>1000</v>
-      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="3"/>
     </row>
     <row r="13" spans="1:17" s="40" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -12902,86 +13067,86 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90" t="s">
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90" t="s">
+      <c r="H15" s="95"/>
+      <c r="I15" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="86" t="s">
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86" t="s">
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87" t="s">
+      <c r="A16" s="97"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87" t="s">
+      <c r="D16" s="96"/>
+      <c r="E16" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87" t="s">
+      <c r="F16" s="96"/>
+      <c r="G16" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="87" t="s">
+      <c r="I16" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="87" t="s">
+      <c r="L16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="87" t="s">
+      <c r="M16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="87" t="s">
+      <c r="N16" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="87" t="s">
+      <c r="O16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="87" t="s">
+      <c r="P16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="87" t="s">
+      <c r="Q16" s="96" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -12994,17 +13159,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -13014,34 +13179,35 @@
         <v>53</v>
       </c>
       <c r="C18" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D18" s="47">
-        <v>10</v>
-      </c>
-      <c r="E18" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F18" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G18" s="49">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E18" s="87">
+        <v>0</v>
+      </c>
+      <c r="F18" s="87">
+        <v>1.8963006603889799E-3</v>
+      </c>
+      <c r="G18" s="90">
+        <f>I18</f>
+        <v>1</v>
       </c>
       <c r="H18" s="50">
         <v>0</v>
       </c>
       <c r="I18" s="49">
-        <f>C18</f>
-        <v>10</v>
+        <f>D18</f>
+        <v>1</v>
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
         <v>0</v>
       </c>
       <c r="K18" s="52">
-        <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>0.1</v>
+        <f>IFERROR((1-(J18/I18))*F18,0)</f>
+        <v>1.8963006603889799E-3</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -13058,34 +13224,35 @@
         <v>54</v>
       </c>
       <c r="C19" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D19" s="47">
-        <v>10</v>
-      </c>
-      <c r="E19" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G19" s="49">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E19" s="87">
+        <v>0</v>
+      </c>
+      <c r="F19" s="87">
+        <v>0</v>
+      </c>
+      <c r="G19" s="90">
+        <f t="shared" ref="G19:G34" si="1">I19</f>
+        <v>0</v>
       </c>
       <c r="H19" s="50">
         <v>0</v>
       </c>
       <c r="I19" s="49">
-        <f t="shared" ref="I19:I34" si="1">C19</f>
-        <v>10</v>
+        <f>C19</f>
+        <v>0</v>
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
         <v>0</v>
       </c>
       <c r="K19" s="52">
-        <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>0.1</v>
+        <f>IFERROR((1-(J19/I19))*E19,0)</f>
+        <v>0</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -13102,34 +13269,35 @@
         <v>55</v>
       </c>
       <c r="C20" s="47">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D20" s="47">
-        <v>10</v>
-      </c>
-      <c r="E20" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G20" s="49">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E20" s="87">
+        <v>4.6029919447641001E-3</v>
+      </c>
+      <c r="F20" s="87">
+        <v>3.8880041823469501E-3</v>
+      </c>
+      <c r="G20" s="90">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="H20" s="50">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I20" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>D20</f>
+        <v>2</v>
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K20" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J20/I20))*F20,0)</f>
+        <v>2.7216029276428649E-3</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -13146,34 +13314,35 @@
         <v>56</v>
       </c>
       <c r="C21" s="47">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D21" s="47">
-        <v>10</v>
-      </c>
-      <c r="E21" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F21" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G21" s="49">
-        <v>10</v>
+        <v>0.6</v>
+      </c>
+      <c r="E21" s="87">
+        <v>2.3014959723820501E-3</v>
+      </c>
+      <c r="F21" s="87">
+        <v>1.13922422983709E-3</v>
+      </c>
+      <c r="G21" s="90">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H21" s="50">
         <v>0</v>
       </c>
       <c r="I21" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>C21</f>
+        <v>1</v>
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K21" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J21/I21))*E21,0)</f>
+        <v>2.3014959723820501E-3</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -13190,34 +13359,35 @@
         <v>57</v>
       </c>
       <c r="C22" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D22" s="47">
-        <v>10</v>
-      </c>
-      <c r="E22" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G22" s="49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E22" s="89">
+        <f>2/508.25</f>
+        <v>3.9350713231677322E-3</v>
+      </c>
+      <c r="F22" s="87">
+        <v>8.5989759354908497E-3</v>
+      </c>
+      <c r="G22" s="90">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H22" s="50">
         <v>0</v>
       </c>
       <c r="I22" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K22" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J22/I22))*E22,0)</f>
+        <v>3.9350713231677322E-3</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -13234,34 +13404,35 @@
         <v>58</v>
       </c>
       <c r="C23" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D23" s="47">
-        <v>10</v>
-      </c>
-      <c r="E23" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F23" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G23" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E23" s="87">
+        <v>0</v>
+      </c>
+      <c r="F23" s="87">
+        <v>0</v>
+      </c>
+      <c r="G23" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H23" s="50">
         <v>0</v>
       </c>
       <c r="I23" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>C23</f>
+        <v>0</v>
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K23" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J23/I23))*E23,0)</f>
+        <v>0</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -13278,34 +13449,34 @@
         <v>59</v>
       </c>
       <c r="C24" s="47">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D24" s="47">
-        <v>10</v>
-      </c>
-      <c r="E24" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F24" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G24" s="49">
-        <v>2</v>
+        <v>22.6</v>
+      </c>
+      <c r="E24" s="87">
+        <v>3.6823935558112801E-2</v>
+      </c>
+      <c r="F24" s="87">
+        <v>4.4044433404939201E-2</v>
+      </c>
+      <c r="G24" s="90">
+        <v>8</v>
       </c>
       <c r="H24" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" ref="I24:I31" si="3">C24</f>
+        <v>16</v>
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K24" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" ref="K24:K31" si="4">IFERROR((1-(J24/I24))*E24,0)</f>
+        <v>1.8411967779056401E-2</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -13322,34 +13493,35 @@
         <v>60</v>
       </c>
       <c r="C25" s="47">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D25" s="47">
-        <v>10</v>
-      </c>
-      <c r="E25" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F25" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G25" s="49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E25" s="87">
+        <v>4.6029919447641001E-3</v>
+      </c>
+      <c r="F25" s="87">
+        <v>8.4702854667588201E-3</v>
+      </c>
+      <c r="G25" s="90">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H25" s="50">
         <v>0</v>
       </c>
       <c r="I25" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K25" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>4.6029919447641001E-3</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -13366,34 +13538,35 @@
         <v>61</v>
       </c>
       <c r="C26" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D26" s="47">
-        <v>10</v>
-      </c>
-      <c r="E26" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F26" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G26" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E26" s="87">
+        <v>0</v>
+      </c>
+      <c r="F26" s="87">
+        <v>0</v>
+      </c>
+      <c r="G26" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H26" s="50">
         <v>0</v>
       </c>
       <c r="I26" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K26" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -13410,34 +13583,35 @@
         <v>62</v>
       </c>
       <c r="C27" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D27" s="47">
-        <v>10</v>
-      </c>
-      <c r="E27" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F27" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G27" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E27" s="87">
+        <v>0</v>
+      </c>
+      <c r="F27" s="87">
+        <v>0</v>
+      </c>
+      <c r="G27" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H27" s="50">
         <v>0</v>
       </c>
       <c r="I27" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K27" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -13457,40 +13631,38 @@
         <v>0</v>
       </c>
       <c r="D28" s="47">
-        <v>0</v>
-      </c>
-      <c r="E28" s="48">
-        <v>0</v>
-      </c>
-      <c r="F28" s="48">
-        <v>0</v>
-      </c>
-      <c r="G28" s="49">
-        <v>2</v>
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="89">
+        <f>I28/508.25</f>
+        <v>2.6233808821118216E-5</v>
+      </c>
+      <c r="F28" s="87">
+        <v>4.0997608472839102E-4</v>
+      </c>
+      <c r="G28" s="90">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="H28" s="50">
         <v>0</v>
       </c>
-      <c r="I28" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="I28" s="88">
+        <f>1/75</f>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K28" s="52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="56">
-        <v>0.1</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>2.6233808821118216E-5</v>
+      </c>
+      <c r="L28" s="56"/>
       <c r="M28" s="55"/>
       <c r="N28" s="55"/>
-      <c r="O28" s="82">
-        <v>0.5</v>
-      </c>
+      <c r="O28" s="82"/>
       <c r="P28" s="57"/>
       <c r="Q28" s="57"/>
     </row>
@@ -13502,34 +13674,35 @@
         <v>64</v>
       </c>
       <c r="C29" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D29" s="47">
-        <v>10</v>
-      </c>
-      <c r="E29" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F29" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G29" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="87">
+        <v>0</v>
+      </c>
+      <c r="F29" s="87">
+        <v>0</v>
+      </c>
+      <c r="G29" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H29" s="50">
         <v>0</v>
       </c>
       <c r="I29" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J29/I29))*E29,0)</f>
+        <v>0</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -13546,34 +13719,35 @@
         <v>65</v>
       </c>
       <c r="C30" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D30" s="47">
-        <v>10</v>
-      </c>
-      <c r="E30" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F30" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G30" s="49">
-        <v>2</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="87">
+        <v>8.8046059746780293E-3</v>
+      </c>
+      <c r="G30" s="90">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H30" s="50">
         <v>0</v>
       </c>
       <c r="I30" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>D30</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J30/I30))*F30,0)</f>
+        <v>8.8046059746780293E-3</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -13590,34 +13764,35 @@
         <v>66</v>
       </c>
       <c r="C31" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D31" s="47">
-        <v>10</v>
-      </c>
-      <c r="E31" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F31" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G31" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E31" s="87">
+        <v>0</v>
+      </c>
+      <c r="F31" s="87">
+        <v>0</v>
+      </c>
+      <c r="G31" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H31" s="50">
         <v>0</v>
       </c>
       <c r="I31" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -13634,34 +13809,35 @@
         <v>67</v>
       </c>
       <c r="C32" s="47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D32" s="47">
-        <v>10</v>
-      </c>
-      <c r="E32" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F32" s="48">
+        <v>20.8</v>
+      </c>
+      <c r="E32" s="87">
+        <v>2.7617951668584599E-2</v>
+      </c>
+      <c r="F32" s="87">
+        <v>4.0548154902741898E-2</v>
+      </c>
+      <c r="G32" s="90">
+        <f t="shared" si="1"/>
+        <v>20.8</v>
+      </c>
+      <c r="H32" s="50">
         <v>0.15</v>
       </c>
-      <c r="G32" s="49">
-        <v>2</v>
-      </c>
-      <c r="H32" s="50">
-        <v>0</v>
-      </c>
       <c r="I32" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>D32</f>
+        <v>20.8</v>
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="K32" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J32/I32))*F32,0)</f>
+        <v>3.4465931667330613E-2</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -13678,34 +13854,35 @@
         <v>68</v>
       </c>
       <c r="C33" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D33" s="47">
-        <v>10</v>
-      </c>
-      <c r="E33" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F33" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G33" s="49">
         <v>2</v>
       </c>
+      <c r="E33" s="87">
+        <v>0</v>
+      </c>
+      <c r="F33" s="87">
+        <v>3.8452806955331302E-3</v>
+      </c>
+      <c r="G33" s="90">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="H33" s="50">
         <v>0</v>
       </c>
       <c r="I33" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>D33</f>
+        <v>2</v>
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K33" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J33/I33))*F33,0)</f>
+        <v>3.8452806955331302E-3</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -13722,34 +13899,35 @@
         <v>106</v>
       </c>
       <c r="C34" s="47">
-        <v>10</v>
+        <v>664.56</v>
       </c>
       <c r="D34" s="47">
-        <v>10</v>
-      </c>
-      <c r="E34" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F34" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G34" s="49">
-        <v>2</v>
+        <v>1124.52</v>
+      </c>
+      <c r="E34" s="87">
+        <v>1.5294821634062099</v>
+      </c>
+      <c r="F34" s="87">
+        <v>2.1710862737652898</v>
+      </c>
+      <c r="G34" s="90">
+        <f t="shared" si="1"/>
+        <v>664.56</v>
       </c>
       <c r="H34" s="50">
         <v>0</v>
       </c>
       <c r="I34" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>C34</f>
+        <v>664.56</v>
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K34" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J34/I34))*E34,0)</f>
+        <v>1.5294821634062099</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -13888,13 +14066,19 @@
       <c r="C41" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="D41" s="18">
+        <v>0</v>
+      </c>
+      <c r="E41" s="18">
+        <v>0</v>
+      </c>
+      <c r="F41" s="18">
+        <v>0</v>
+      </c>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
@@ -13912,13 +14096,21 @@
       <c r="C42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="D42" s="18">
+        <v>0</v>
+      </c>
+      <c r="E42" s="18">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="F42" s="18">
+        <f>E42</f>
+        <v>0.6</v>
+      </c>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
       <c r="I42" s="32">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
@@ -13936,13 +14128,21 @@
       <c r="C43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="D43" s="18">
+        <v>0</v>
+      </c>
+      <c r="E43" s="18">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="F43" s="18">
+        <f>E43</f>
+        <v>0.6</v>
+      </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
       <c r="I43" s="32">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
@@ -13960,13 +14160,19 @@
       <c r="C44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
+      <c r="D44" s="18">
+        <v>0</v>
+      </c>
+      <c r="E44" s="18">
+        <v>0</v>
+      </c>
+      <c r="F44" s="18">
+        <v>0</v>
+      </c>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
@@ -13984,13 +14190,19 @@
       <c r="C45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="D45" s="18">
+        <v>0</v>
+      </c>
+      <c r="E45" s="18">
+        <v>0</v>
+      </c>
+      <c r="F45" s="18">
+        <v>0</v>
+      </c>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
@@ -14008,9 +14220,15 @@
       <c r="C46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="D46" s="18">
+        <v>0</v>
+      </c>
+      <c r="E46" s="18">
+        <v>0</v>
+      </c>
+      <c r="F46" s="18">
+        <v>0</v>
+      </c>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
       <c r="I46" s="32">
@@ -14128,13 +14346,13 @@
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
       <c r="I52" s="32">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="J52" s="32">
-        <v>196</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K52" s="32">
-        <v>159</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>80</v>
@@ -14156,13 +14374,13 @@
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
       <c r="I53" s="32">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="J53" s="32">
-        <v>123</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K53" s="32">
-        <v>193</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>83</v>
@@ -14184,13 +14402,13 @@
       <c r="G54" s="24"/>
       <c r="H54" s="24"/>
       <c r="I54" s="32">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="J54" s="32">
-        <v>138</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K54" s="32">
-        <v>161</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>84</v>
@@ -14208,17 +14426,23 @@
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="F55" s="18">
+        <v>0</v>
+      </c>
+      <c r="G55" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H55" s="18">
+        <v>-9.9999999999999995E-7</v>
+      </c>
       <c r="I55" s="32">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="J55" s="32">
-        <v>181</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K55" s="32">
-        <v>139</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>81</v>
@@ -14236,17 +14460,23 @@
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="F56" s="18">
+        <v>0</v>
+      </c>
+      <c r="G56" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H56" s="18">
+        <v>-9.9999999999999995E-7</v>
+      </c>
       <c r="I56" s="32">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="J56" s="32">
-        <v>140</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K56" s="32">
-        <v>134</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>82</v>
@@ -14264,17 +14494,23 @@
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
+      <c r="F57" s="18">
+        <v>0</v>
+      </c>
+      <c r="G57" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H57" s="18">
+        <v>-9.9999999999999995E-7</v>
+      </c>
       <c r="I57" s="32">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="J57" s="32">
-        <v>139</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K57" s="32">
-        <v>114</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>19</v>
@@ -14292,17 +14528,23 @@
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="F58" s="18">
+        <v>0</v>
+      </c>
+      <c r="G58" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H58" s="18">
+        <v>-9.9999999999999995E-7</v>
+      </c>
       <c r="I58" s="32">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="J58" s="32">
-        <v>178</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K58" s="32">
-        <v>103</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>17</v>
@@ -14310,11 +14552,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -14331,11 +14573,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14343,14 +14585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H34"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28:O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14639,86 +14881,86 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90" t="s">
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90" t="s">
+      <c r="H15" s="95"/>
+      <c r="I15" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="86" t="s">
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86" t="s">
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87" t="s">
+      <c r="A16" s="97"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87" t="s">
+      <c r="D16" s="96"/>
+      <c r="E16" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87" t="s">
+      <c r="F16" s="96"/>
+      <c r="G16" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="87" t="s">
+      <c r="I16" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="87" t="s">
+      <c r="L16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="87" t="s">
+      <c r="M16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="87" t="s">
+      <c r="N16" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="87" t="s">
+      <c r="O16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="87" t="s">
+      <c r="P16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="87" t="s">
+      <c r="Q16" s="96" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -14731,17 +14973,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -14751,34 +14993,35 @@
         <v>53</v>
       </c>
       <c r="C18" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D18" s="47">
-        <v>10</v>
-      </c>
-      <c r="E18" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F18" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G18" s="49">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E18" s="87">
+        <v>0</v>
+      </c>
+      <c r="F18" s="87">
+        <v>1.8963006603889799E-3</v>
+      </c>
+      <c r="G18" s="90">
+        <f>I18</f>
+        <v>1</v>
       </c>
       <c r="H18" s="50">
         <v>0</v>
       </c>
       <c r="I18" s="49">
-        <f>C18</f>
-        <v>10</v>
+        <f>D18</f>
+        <v>1</v>
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
         <v>0</v>
       </c>
       <c r="K18" s="52">
-        <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>0.1</v>
+        <f>IFERROR((1-(J18/I18))*F18,0)</f>
+        <v>1.8963006603889799E-3</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -14795,34 +15038,35 @@
         <v>54</v>
       </c>
       <c r="C19" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D19" s="47">
-        <v>10</v>
-      </c>
-      <c r="E19" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G19" s="49">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E19" s="87">
+        <v>0</v>
+      </c>
+      <c r="F19" s="87">
+        <v>0</v>
+      </c>
+      <c r="G19" s="90">
+        <f t="shared" ref="G19:G34" si="1">I19</f>
+        <v>0</v>
       </c>
       <c r="H19" s="50">
         <v>0</v>
       </c>
       <c r="I19" s="49">
-        <f t="shared" ref="I19:I34" si="1">C19</f>
-        <v>10</v>
+        <f>C19</f>
+        <v>0</v>
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
         <v>0</v>
       </c>
       <c r="K19" s="52">
-        <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>0.1</v>
+        <f>IFERROR((1-(J19/I19))*E19,0)</f>
+        <v>0</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -14839,34 +15083,35 @@
         <v>55</v>
       </c>
       <c r="C20" s="47">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D20" s="47">
-        <v>10</v>
-      </c>
-      <c r="E20" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G20" s="49">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E20" s="87">
+        <v>4.6029919447641001E-3</v>
+      </c>
+      <c r="F20" s="87">
+        <v>3.8880041823469501E-3</v>
+      </c>
+      <c r="G20" s="90">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="H20" s="50">
         <v>0</v>
       </c>
       <c r="I20" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>D20</f>
+        <v>2</v>
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K20" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J20/I20))*F20,0)</f>
+        <v>3.8880041823469501E-3</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -14883,34 +15128,35 @@
         <v>56</v>
       </c>
       <c r="C21" s="47">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D21" s="47">
-        <v>10</v>
-      </c>
-      <c r="E21" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F21" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G21" s="49">
-        <v>10</v>
+        <v>0.6</v>
+      </c>
+      <c r="E21" s="87">
+        <v>2.3014959723820501E-3</v>
+      </c>
+      <c r="F21" s="87">
+        <v>1.13922422983709E-3</v>
+      </c>
+      <c r="G21" s="90">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H21" s="50">
         <v>0</v>
       </c>
       <c r="I21" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>C21</f>
+        <v>1</v>
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K21" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J21/I21))*E21,0)</f>
+        <v>2.3014959723820501E-3</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -14927,34 +15173,35 @@
         <v>57</v>
       </c>
       <c r="C22" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D22" s="47">
-        <v>10</v>
-      </c>
-      <c r="E22" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G22" s="49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E22" s="89">
+        <f>2/508.25</f>
+        <v>3.9350713231677322E-3</v>
+      </c>
+      <c r="F22" s="87">
+        <v>8.5989759354908497E-3</v>
+      </c>
+      <c r="G22" s="90">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H22" s="50">
         <v>0</v>
       </c>
       <c r="I22" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K22" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J22/I22))*E22,0)</f>
+        <v>3.9350713231677322E-3</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -14971,34 +15218,35 @@
         <v>58</v>
       </c>
       <c r="C23" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D23" s="47">
-        <v>10</v>
-      </c>
-      <c r="E23" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F23" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G23" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E23" s="87">
+        <v>0</v>
+      </c>
+      <c r="F23" s="87">
+        <v>0</v>
+      </c>
+      <c r="G23" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H23" s="50">
         <v>0</v>
       </c>
       <c r="I23" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>C23</f>
+        <v>0</v>
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K23" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J23/I23))*E23,0)</f>
+        <v>0</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -15015,34 +15263,35 @@
         <v>59</v>
       </c>
       <c r="C24" s="47">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D24" s="47">
-        <v>10</v>
-      </c>
-      <c r="E24" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F24" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G24" s="49">
-        <v>2</v>
+        <v>22.6</v>
+      </c>
+      <c r="E24" s="87">
+        <v>3.6823935558112801E-2</v>
+      </c>
+      <c r="F24" s="87">
+        <v>4.4044433404939201E-2</v>
+      </c>
+      <c r="G24" s="90">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="H24" s="50">
         <v>0</v>
       </c>
       <c r="I24" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" ref="I24:I31" si="3">C24</f>
+        <v>16</v>
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K24" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" ref="K24:K31" si="4">IFERROR((1-(J24/I24))*E24,0)</f>
+        <v>3.6823935558112801E-2</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -15059,34 +15308,35 @@
         <v>60</v>
       </c>
       <c r="C25" s="47">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D25" s="47">
-        <v>10</v>
-      </c>
-      <c r="E25" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F25" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G25" s="49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E25" s="87">
+        <v>4.6029919447641001E-3</v>
+      </c>
+      <c r="F25" s="87">
+        <v>8.4702854667588201E-3</v>
+      </c>
+      <c r="G25" s="90">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H25" s="50">
         <v>0</v>
       </c>
       <c r="I25" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K25" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>4.6029919447641001E-3</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -15103,34 +15353,35 @@
         <v>61</v>
       </c>
       <c r="C26" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D26" s="47">
-        <v>10</v>
-      </c>
-      <c r="E26" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F26" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G26" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E26" s="87">
+        <v>0</v>
+      </c>
+      <c r="F26" s="87">
+        <v>0</v>
+      </c>
+      <c r="G26" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H26" s="50">
         <v>0</v>
       </c>
       <c r="I26" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K26" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -15147,34 +15398,35 @@
         <v>62</v>
       </c>
       <c r="C27" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D27" s="47">
-        <v>10</v>
-      </c>
-      <c r="E27" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F27" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G27" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E27" s="87">
+        <v>0</v>
+      </c>
+      <c r="F27" s="87">
+        <v>0</v>
+      </c>
+      <c r="G27" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H27" s="50">
         <v>0</v>
       </c>
       <c r="I27" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K27" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -15194,40 +15446,38 @@
         <v>0</v>
       </c>
       <c r="D28" s="47">
-        <v>0</v>
-      </c>
-      <c r="E28" s="48">
-        <v>0</v>
-      </c>
-      <c r="F28" s="48">
-        <v>0</v>
-      </c>
-      <c r="G28" s="49">
-        <v>2</v>
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="89">
+        <f>I28/508.25</f>
+        <v>2.6233808821118216E-5</v>
+      </c>
+      <c r="F28" s="87">
+        <v>4.0997608472839102E-4</v>
+      </c>
+      <c r="G28" s="90">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="H28" s="50">
         <v>0</v>
       </c>
-      <c r="I28" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="I28" s="88">
+        <f>1/75</f>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K28" s="52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="56">
-        <v>0.1</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>2.6233808821118216E-5</v>
+      </c>
+      <c r="L28" s="56"/>
       <c r="M28" s="55"/>
       <c r="N28" s="55"/>
-      <c r="O28" s="82">
-        <v>0.5</v>
-      </c>
+      <c r="O28" s="82"/>
       <c r="P28" s="57"/>
       <c r="Q28" s="57"/>
     </row>
@@ -15239,34 +15489,35 @@
         <v>64</v>
       </c>
       <c r="C29" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D29" s="47">
-        <v>10</v>
-      </c>
-      <c r="E29" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F29" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G29" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="87">
+        <v>0</v>
+      </c>
+      <c r="F29" s="87">
+        <v>0</v>
+      </c>
+      <c r="G29" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H29" s="50">
         <v>0</v>
       </c>
       <c r="I29" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J29/I29))*E29,0)</f>
+        <v>0</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -15283,34 +15534,35 @@
         <v>65</v>
       </c>
       <c r="C30" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D30" s="47">
-        <v>10</v>
-      </c>
-      <c r="E30" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F30" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G30" s="49">
-        <v>2</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="87">
+        <v>8.8046059746780293E-3</v>
+      </c>
+      <c r="G30" s="90">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H30" s="50">
         <v>0</v>
       </c>
       <c r="I30" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>D30</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J30/I30))*F30,0)</f>
+        <v>8.8046059746780293E-3</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -15327,34 +15579,35 @@
         <v>66</v>
       </c>
       <c r="C31" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D31" s="47">
-        <v>10</v>
-      </c>
-      <c r="E31" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F31" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G31" s="49">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E31" s="87">
+        <v>0</v>
+      </c>
+      <c r="F31" s="87">
+        <v>0</v>
+      </c>
+      <c r="G31" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H31" s="50">
         <v>0</v>
       </c>
       <c r="I31" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -15371,34 +15624,35 @@
         <v>67</v>
       </c>
       <c r="C32" s="47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D32" s="47">
-        <v>10</v>
-      </c>
-      <c r="E32" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F32" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G32" s="49">
-        <v>2</v>
+        <v>20.8</v>
+      </c>
+      <c r="E32" s="87">
+        <v>2.7617951668584599E-2</v>
+      </c>
+      <c r="F32" s="87">
+        <v>4.0548154902741898E-2</v>
+      </c>
+      <c r="G32" s="90">
+        <f t="shared" si="1"/>
+        <v>20.8</v>
       </c>
       <c r="H32" s="50">
         <v>0</v>
       </c>
       <c r="I32" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>D32</f>
+        <v>20.8</v>
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K32" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J32/I32))*F32,0)</f>
+        <v>4.0548154902741898E-2</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -15415,34 +15669,35 @@
         <v>68</v>
       </c>
       <c r="C33" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D33" s="47">
-        <v>10</v>
-      </c>
-      <c r="E33" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F33" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G33" s="49">
         <v>2</v>
       </c>
+      <c r="E33" s="87">
+        <v>0</v>
+      </c>
+      <c r="F33" s="87">
+        <v>3.8452806955331302E-3</v>
+      </c>
+      <c r="G33" s="90">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="H33" s="50">
         <v>0</v>
       </c>
       <c r="I33" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>D33</f>
+        <v>2</v>
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K33" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J33/I33))*F33,0)</f>
+        <v>3.8452806955331302E-3</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -15459,34 +15714,35 @@
         <v>106</v>
       </c>
       <c r="C34" s="47">
-        <v>10</v>
+        <v>664.56</v>
       </c>
       <c r="D34" s="47">
-        <v>10</v>
-      </c>
-      <c r="E34" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F34" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="G34" s="49">
-        <v>2</v>
+        <v>1124.52</v>
+      </c>
+      <c r="E34" s="87">
+        <v>1.5294821634062099</v>
+      </c>
+      <c r="F34" s="87">
+        <v>2.1710862737652898</v>
+      </c>
+      <c r="G34" s="90">
+        <f t="shared" si="1"/>
+        <v>664.56</v>
       </c>
       <c r="H34" s="50">
         <v>0</v>
       </c>
       <c r="I34" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>C34</f>
+        <v>664.56</v>
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K34" s="52">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>IFERROR((1-(J34/I34))*E34,0)</f>
+        <v>1.5294821634062099</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -16047,11 +16303,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -16068,11 +16324,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16080,14 +16336,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H34"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16376,86 +16632,86 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90" t="s">
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90" t="s">
+      <c r="H15" s="95"/>
+      <c r="I15" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="86" t="s">
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86" t="s">
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87" t="s">
+      <c r="A16" s="97"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87" t="s">
+      <c r="D16" s="96"/>
+      <c r="E16" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87" t="s">
+      <c r="F16" s="96"/>
+      <c r="G16" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="87" t="s">
+      <c r="I16" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="87" t="s">
+      <c r="L16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="87" t="s">
+      <c r="M16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="87" t="s">
+      <c r="N16" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="87" t="s">
+      <c r="O16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="87" t="s">
+      <c r="P16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="87" t="s">
+      <c r="Q16" s="96" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -16468,17 +16724,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -16503,7 +16759,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I18" s="49">
         <f>C18</f>
@@ -16511,11 +16767,11 @@
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="52">
         <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -16547,7 +16803,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" ref="I19:I34" si="1">C19</f>
@@ -16555,11 +16811,11 @@
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="52">
         <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -16591,7 +16847,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="1"/>
@@ -16599,11 +16855,11 @@
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -16635,7 +16891,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="1"/>
@@ -16643,11 +16899,11 @@
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -16679,7 +16935,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I22" s="49">
         <f t="shared" si="1"/>
@@ -16687,11 +16943,11 @@
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K22" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -16723,7 +16979,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I23" s="49">
         <f t="shared" si="1"/>
@@ -16731,11 +16987,11 @@
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K23" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -16767,7 +17023,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" si="1"/>
@@ -16775,11 +17031,11 @@
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K24" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -16811,7 +17067,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
@@ -16819,11 +17075,11 @@
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K25" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -16855,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" si="1"/>
@@ -16863,11 +17119,11 @@
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K26" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -16899,7 +17155,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I27" s="49">
         <f t="shared" si="1"/>
@@ -16907,11 +17163,11 @@
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K27" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -16943,7 +17199,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I28" s="49">
         <f t="shared" si="1"/>
@@ -16951,7 +17207,7 @@
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K28" s="52">
         <f t="shared" si="3"/>
@@ -16991,7 +17247,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I29" s="49">
         <f t="shared" si="1"/>
@@ -16999,11 +17255,11 @@
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K29" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -17035,7 +17291,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" si="1"/>
@@ -17043,11 +17299,11 @@
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K30" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -17079,7 +17335,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="1"/>
@@ -17087,11 +17343,11 @@
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -17123,7 +17379,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="1"/>
@@ -17131,11 +17387,11 @@
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K32" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -17167,7 +17423,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I33" s="49">
         <f t="shared" si="1"/>
@@ -17175,11 +17431,11 @@
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K33" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -17211,7 +17467,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I34" s="49">
         <f t="shared" si="1"/>
@@ -17219,11 +17475,11 @@
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K34" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -17784,11 +18040,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -17805,11 +18061,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17817,14 +18073,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H34"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18113,86 +18369,86 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90" t="s">
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90" t="s">
+      <c r="H15" s="95"/>
+      <c r="I15" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="86" t="s">
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86" t="s">
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87" t="s">
+      <c r="A16" s="97"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87" t="s">
+      <c r="D16" s="96"/>
+      <c r="E16" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87" t="s">
+      <c r="F16" s="96"/>
+      <c r="G16" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="87" t="s">
+      <c r="I16" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="87" t="s">
+      <c r="L16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="87" t="s">
+      <c r="M16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="87" t="s">
+      <c r="N16" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="87" t="s">
+      <c r="O16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="87" t="s">
+      <c r="P16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="87" t="s">
+      <c r="Q16" s="96" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -18205,17 +18461,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -18240,7 +18496,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I18" s="49">
         <f>C18</f>
@@ -18248,11 +18504,11 @@
       </c>
       <c r="J18" s="51">
         <f>G18*H18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="52">
         <f>IFERROR((1-(J18/I18))*E18,0)</f>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -18284,7 +18540,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" ref="I19:I34" si="1">C19</f>
@@ -18292,11 +18548,11 @@
       </c>
       <c r="J19" s="51">
         <f t="shared" ref="J19:J34" si="2">G19*H19</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="52">
         <f t="shared" ref="K19:K34" si="3">IFERROR((1-(J19/I19))*E19,0)</f>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
@@ -18328,7 +18584,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="1"/>
@@ -18336,11 +18592,11 @@
       </c>
       <c r="J20" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
@@ -18372,7 +18628,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="1"/>
@@ -18380,11 +18636,11 @@
       </c>
       <c r="J21" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
@@ -18416,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I22" s="49">
         <f t="shared" si="1"/>
@@ -18424,11 +18680,11 @@
       </c>
       <c r="J22" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K22" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -18460,7 +18716,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I23" s="49">
         <f t="shared" si="1"/>
@@ -18468,11 +18724,11 @@
       </c>
       <c r="J23" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K23" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -18504,7 +18760,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" si="1"/>
@@ -18512,11 +18768,11 @@
       </c>
       <c r="J24" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K24" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="56"/>
@@ -18548,7 +18804,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I25" s="49">
         <f t="shared" si="1"/>
@@ -18556,11 +18812,11 @@
       </c>
       <c r="J25" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K25" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
@@ -18592,7 +18848,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" si="1"/>
@@ -18600,11 +18856,11 @@
       </c>
       <c r="J26" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K26" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
@@ -18636,7 +18892,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I27" s="49">
         <f t="shared" si="1"/>
@@ -18644,11 +18900,11 @@
       </c>
       <c r="J27" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K27" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -18680,7 +18936,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I28" s="49">
         <f t="shared" si="1"/>
@@ -18688,7 +18944,7 @@
       </c>
       <c r="J28" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K28" s="52">
         <f t="shared" si="3"/>
@@ -18728,7 +18984,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I29" s="49">
         <f t="shared" si="1"/>
@@ -18736,11 +18992,11 @@
       </c>
       <c r="J29" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K29" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
@@ -18772,7 +19028,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" si="1"/>
@@ -18780,11 +19036,11 @@
       </c>
       <c r="J30" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K30" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
@@ -18816,7 +19072,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="1"/>
@@ -18824,11 +19080,11 @@
       </c>
       <c r="J31" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K31" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -18860,7 +19116,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="1"/>
@@ -18868,11 +19124,11 @@
       </c>
       <c r="J32" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K32" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
@@ -18904,7 +19160,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I33" s="49">
         <f t="shared" si="1"/>
@@ -18912,11 +19168,11 @@
       </c>
       <c r="J33" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K33" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -18948,7 +19204,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I34" s="49">
         <f t="shared" si="1"/>
@@ -18956,11 +19212,11 @@
       </c>
       <c r="J34" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K34" s="52">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
@@ -19521,11 +19777,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -19542,11 +19798,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada_Iniciativas - v0.3.xlsx
+++ b/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada_Iniciativas - v0.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="8175" tabRatio="892" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="8175" tabRatio="892" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Pl. suporte" sheetId="51" state="hidden" r:id="rId1"/>
@@ -9183,8 +9183,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" topLeftCell="B13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10976,6 +10976,9 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I19:K30" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -10986,8 +10989,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D41" activeCellId="3" sqref="I41 I44:I46 D44:F46 D41:F42"/>
+    <sheetView showGridLines="0" topLeftCell="C14" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12776,6 +12779,9 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I19:K30" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -12786,8 +12792,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:K34"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14581,6 +14587,9 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I19:K32" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -14591,8 +14600,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28:O28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16332,6 +16341,9 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I19:K30" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada_Iniciativas - v0.3.xlsx
+++ b/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada_Iniciativas - v0.3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="8175" tabRatio="892" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="8175" tabRatio="892" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pl. suporte" sheetId="51" state="hidden" r:id="rId1"/>
@@ -484,12 +484,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -747,7 +747,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -986,14 +986,29 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1007,32 +1022,17 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Moeda 2" xfId="4"/>
+    <cellStyle name="Moeda 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="6" builtinId="5"/>
-    <cellStyle name="Vírgula 2" xfId="1"/>
-    <cellStyle name="Vírgula 2 2" xfId="2"/>
-    <cellStyle name="Vírgula 2 3" xfId="8"/>
-    <cellStyle name="Vírgula 3" xfId="5"/>
-    <cellStyle name="Vírgula 4" xfId="3"/>
-    <cellStyle name="Vírgula 5" xfId="7"/>
+    <cellStyle name="Vírgula 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Vírgula 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Vírgula 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Vírgula 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Vírgula 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Vírgula 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1409,7 +1409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1522,7 +1522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
@@ -1818,18 +1818,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
@@ -1839,65 +1839,65 @@
       </c>
       <c r="J15" s="95"/>
       <c r="K15" s="95"/>
-      <c r="L15" s="99" t="s">
+      <c r="L15" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99" t="s">
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96" t="s">
+      <c r="A16" s="93"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96" t="s">
+      <c r="F16" s="92"/>
+      <c r="G16" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="96" t="s">
+      <c r="I16" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="96" t="s">
+      <c r="J16" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="96" t="s">
+      <c r="K16" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="96" t="s">
+      <c r="L16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="96" t="s">
+      <c r="M16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="96" t="s">
+      <c r="N16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="96" t="s">
+      <c r="O16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="96" t="s">
+      <c r="P16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="96" t="s">
+      <c r="Q16" s="92" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -1910,17 +1910,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -2736,20 +2736,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="91" t="s">
+      <c r="D39" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="92"/>
-      <c r="F39" s="94" t="s">
+      <c r="E39" s="97"/>
+      <c r="F39" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93" t="s">
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -2970,20 +2970,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="91" t="s">
+      <c r="D50" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="92"/>
-      <c r="F50" s="93" t="s">
+      <c r="E50" s="97"/>
+      <c r="F50" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93" t="s">
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -3226,11 +3226,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -3247,11 +3247,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3259,7 +3259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
@@ -3555,18 +3555,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
@@ -3576,65 +3576,65 @@
       </c>
       <c r="J15" s="95"/>
       <c r="K15" s="95"/>
-      <c r="L15" s="99" t="s">
+      <c r="L15" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99" t="s">
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96" t="s">
+      <c r="A16" s="93"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96" t="s">
+      <c r="F16" s="92"/>
+      <c r="G16" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="96" t="s">
+      <c r="I16" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="96" t="s">
+      <c r="J16" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="96" t="s">
+      <c r="K16" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="96" t="s">
+      <c r="L16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="96" t="s">
+      <c r="M16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="96" t="s">
+      <c r="N16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="96" t="s">
+      <c r="O16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="96" t="s">
+      <c r="P16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="96" t="s">
+      <c r="Q16" s="92" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -3647,17 +3647,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -4473,20 +4473,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="91" t="s">
+      <c r="D39" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="92"/>
-      <c r="F39" s="94" t="s">
+      <c r="E39" s="97"/>
+      <c r="F39" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93" t="s">
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -4707,20 +4707,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="91" t="s">
+      <c r="D50" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="92"/>
-      <c r="F50" s="93" t="s">
+      <c r="E50" s="97"/>
+      <c r="F50" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93" t="s">
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -4963,11 +4963,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -4984,11 +4984,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4996,7 +4996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
@@ -5292,18 +5292,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
@@ -5313,65 +5313,65 @@
       </c>
       <c r="J15" s="95"/>
       <c r="K15" s="95"/>
-      <c r="L15" s="99" t="s">
+      <c r="L15" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99" t="s">
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96" t="s">
+      <c r="A16" s="93"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96" t="s">
+      <c r="F16" s="92"/>
+      <c r="G16" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="96" t="s">
+      <c r="I16" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="96" t="s">
+      <c r="J16" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="96" t="s">
+      <c r="K16" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="96" t="s">
+      <c r="L16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="96" t="s">
+      <c r="M16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="96" t="s">
+      <c r="N16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="96" t="s">
+      <c r="O16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="96" t="s">
+      <c r="P16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="96" t="s">
+      <c r="Q16" s="92" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -5384,17 +5384,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -6210,20 +6210,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="91" t="s">
+      <c r="D39" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="92"/>
-      <c r="F39" s="94" t="s">
+      <c r="E39" s="97"/>
+      <c r="F39" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93" t="s">
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -6444,20 +6444,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="91" t="s">
+      <c r="D50" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="92"/>
-      <c r="F50" s="93" t="s">
+      <c r="E50" s="97"/>
+      <c r="F50" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93" t="s">
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -6700,11 +6700,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -6721,11 +6721,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6733,7 +6733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
@@ -7029,18 +7029,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
@@ -7050,65 +7050,65 @@
       </c>
       <c r="J15" s="95"/>
       <c r="K15" s="95"/>
-      <c r="L15" s="99" t="s">
+      <c r="L15" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99" t="s">
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96" t="s">
+      <c r="A16" s="93"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96" t="s">
+      <c r="F16" s="92"/>
+      <c r="G16" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="96" t="s">
+      <c r="I16" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="96" t="s">
+      <c r="J16" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="96" t="s">
+      <c r="K16" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="96" t="s">
+      <c r="L16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="96" t="s">
+      <c r="M16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="96" t="s">
+      <c r="N16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="96" t="s">
+      <c r="O16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="96" t="s">
+      <c r="P16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="96" t="s">
+      <c r="Q16" s="92" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -7121,17 +7121,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -7947,20 +7947,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="91" t="s">
+      <c r="D39" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="92"/>
-      <c r="F39" s="94" t="s">
+      <c r="E39" s="97"/>
+      <c r="F39" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93" t="s">
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -8181,20 +8181,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="91" t="s">
+      <c r="D50" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="92"/>
-      <c r="F50" s="93" t="s">
+      <c r="E50" s="97"/>
+      <c r="F50" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93" t="s">
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -8437,11 +8437,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -8458,11 +8458,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8470,7 +8470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF7574"/>
   </sheetPr>
@@ -8667,19 +8667,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'Pl. suporte'!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>D13:D21</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>'Pl. suporte'!$B$2:$B$10</xm:f>
           </x14:formula1>
           <xm:sqref>C7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>'Pl. suporte'!$C$2:$C$11</xm:f>
           </x14:formula1>
@@ -8692,7 +8692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF7574"/>
   </sheetPr>
@@ -9177,7 +9177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
@@ -9462,18 +9462,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
@@ -9483,65 +9483,65 @@
       </c>
       <c r="J15" s="95"/>
       <c r="K15" s="95"/>
-      <c r="L15" s="99" t="s">
+      <c r="L15" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99" t="s">
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96" t="s">
+      <c r="A16" s="93"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96" t="s">
+      <c r="F16" s="92"/>
+      <c r="G16" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="96" t="s">
+      <c r="I16" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="96" t="s">
+      <c r="J16" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="96" t="s">
+      <c r="K16" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="96" t="s">
+      <c r="L16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="96" t="s">
+      <c r="M16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="96" t="s">
+      <c r="N16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="96" t="s">
+      <c r="O16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="96" t="s">
+      <c r="P16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="96" t="s">
+      <c r="Q16" s="92" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="79" t="s">
         <v>71</v>
       </c>
@@ -9554,17 +9554,17 @@
       <c r="F17" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -10390,20 +10390,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="91" t="s">
+      <c r="D39" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="92"/>
-      <c r="F39" s="94" t="s">
+      <c r="E39" s="97"/>
+      <c r="F39" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93" t="s">
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -10664,20 +10664,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="91" t="s">
+      <c r="D50" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="92"/>
-      <c r="F50" s="93" t="s">
+      <c r="E50" s="97"/>
+      <c r="F50" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93" t="s">
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -10947,6 +10947,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="B15:B17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="M16:M17"/>
@@ -10955,24 +10973,6 @@
     <mergeCell ref="O16:O17"/>
     <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I50:K50"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10983,7 +10983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
@@ -11261,18 +11261,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
@@ -11282,65 +11282,65 @@
       </c>
       <c r="J15" s="95"/>
       <c r="K15" s="95"/>
-      <c r="L15" s="99" t="s">
+      <c r="L15" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99" t="s">
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96" t="s">
+      <c r="A16" s="93"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96" t="s">
+      <c r="F16" s="92"/>
+      <c r="G16" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="96" t="s">
+      <c r="I16" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="96" t="s">
+      <c r="J16" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="96" t="s">
+      <c r="K16" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="96" t="s">
+      <c r="L16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="96" t="s">
+      <c r="M16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="96" t="s">
+      <c r="N16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="96" t="s">
+      <c r="O16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="96" t="s">
+      <c r="P16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="96" t="s">
+      <c r="Q16" s="92" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -11353,17 +11353,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -12193,20 +12193,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="91" t="s">
+      <c r="D39" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="92"/>
-      <c r="F39" s="94" t="s">
+      <c r="E39" s="97"/>
+      <c r="F39" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93" t="s">
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -12466,20 +12466,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="91" t="s">
+      <c r="D50" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="92"/>
-      <c r="F50" s="93" t="s">
+      <c r="E50" s="97"/>
+      <c r="F50" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93" t="s">
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -12750,11 +12750,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -12771,11 +12771,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12786,7 +12786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
@@ -13073,18 +13073,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
@@ -13094,65 +13094,65 @@
       </c>
       <c r="J15" s="95"/>
       <c r="K15" s="95"/>
-      <c r="L15" s="99" t="s">
+      <c r="L15" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99" t="s">
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96" t="s">
+      <c r="A16" s="93"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96" t="s">
+      <c r="F16" s="92"/>
+      <c r="G16" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="96" t="s">
+      <c r="I16" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="96" t="s">
+      <c r="J16" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="96" t="s">
+      <c r="K16" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="96" t="s">
+      <c r="L16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="96" t="s">
+      <c r="M16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="96" t="s">
+      <c r="N16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="96" t="s">
+      <c r="O16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="96" t="s">
+      <c r="P16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="96" t="s">
+      <c r="Q16" s="92" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -13165,17 +13165,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -14004,20 +14004,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="91" t="s">
+      <c r="D39" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="92"/>
-      <c r="F39" s="94" t="s">
+      <c r="E39" s="97"/>
+      <c r="F39" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93" t="s">
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -14278,20 +14278,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="91" t="s">
+      <c r="D50" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="92"/>
-      <c r="F50" s="93" t="s">
+      <c r="E50" s="97"/>
+      <c r="F50" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93" t="s">
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -14558,11 +14558,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -14579,11 +14579,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14594,7 +14594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
@@ -14890,18 +14890,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
@@ -14911,65 +14911,65 @@
       </c>
       <c r="J15" s="95"/>
       <c r="K15" s="95"/>
-      <c r="L15" s="99" t="s">
+      <c r="L15" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99" t="s">
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96" t="s">
+      <c r="A16" s="93"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96" t="s">
+      <c r="F16" s="92"/>
+      <c r="G16" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="96" t="s">
+      <c r="I16" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="96" t="s">
+      <c r="J16" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="96" t="s">
+      <c r="K16" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="96" t="s">
+      <c r="L16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="96" t="s">
+      <c r="M16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="96" t="s">
+      <c r="N16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="96" t="s">
+      <c r="O16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="96" t="s">
+      <c r="P16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="96" t="s">
+      <c r="Q16" s="92" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -14982,17 +14982,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -15822,20 +15822,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="91" t="s">
+      <c r="D39" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="92"/>
-      <c r="F39" s="94" t="s">
+      <c r="E39" s="97"/>
+      <c r="F39" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93" t="s">
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -16056,20 +16056,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="91" t="s">
+      <c r="D50" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="92"/>
-      <c r="F50" s="93" t="s">
+      <c r="E50" s="97"/>
+      <c r="F50" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93" t="s">
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -16312,11 +16312,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -16333,11 +16333,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16348,7 +16348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
@@ -16644,18 +16644,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
@@ -16665,65 +16665,65 @@
       </c>
       <c r="J15" s="95"/>
       <c r="K15" s="95"/>
-      <c r="L15" s="99" t="s">
+      <c r="L15" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99" t="s">
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96" t="s">
+      <c r="A16" s="93"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96" t="s">
+      <c r="F16" s="92"/>
+      <c r="G16" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="96" t="s">
+      <c r="I16" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="96" t="s">
+      <c r="J16" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="96" t="s">
+      <c r="K16" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="96" t="s">
+      <c r="L16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="96" t="s">
+      <c r="M16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="96" t="s">
+      <c r="N16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="96" t="s">
+      <c r="O16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="96" t="s">
+      <c r="P16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="96" t="s">
+      <c r="Q16" s="92" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -16736,17 +16736,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -17562,20 +17562,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="91" t="s">
+      <c r="D39" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="92"/>
-      <c r="F39" s="94" t="s">
+      <c r="E39" s="97"/>
+      <c r="F39" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93" t="s">
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -17796,20 +17796,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="91" t="s">
+      <c r="D50" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="92"/>
-      <c r="F50" s="93" t="s">
+      <c r="E50" s="97"/>
+      <c r="F50" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93" t="s">
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -18052,11 +18052,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -18073,11 +18073,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18085,7 +18085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFCBC77"/>
   </sheetPr>
@@ -18381,18 +18381,18 @@
       <c r="N13" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="95" t="s">
         <v>51</v>
       </c>
@@ -18402,65 +18402,65 @@
       </c>
       <c r="J15" s="95"/>
       <c r="K15" s="95"/>
-      <c r="L15" s="99" t="s">
+      <c r="L15" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99" t="s">
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96" t="s">
+      <c r="A16" s="93"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96" t="s">
+      <c r="F16" s="92"/>
+      <c r="G16" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="96" t="s">
+      <c r="I16" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="96" t="s">
+      <c r="J16" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="96" t="s">
+      <c r="K16" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="96" t="s">
+      <c r="L16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="96" t="s">
+      <c r="M16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="96" t="s">
+      <c r="N16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="96" t="s">
+      <c r="O16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="96" t="s">
+      <c r="P16" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="96" t="s">
+      <c r="Q16" s="92" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="81" t="s">
         <v>71</v>
       </c>
@@ -18473,17 +18473,17 @@
       <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -19299,20 +19299,20 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="91" t="s">
+      <c r="D39" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="92"/>
-      <c r="F39" s="94" t="s">
+      <c r="E39" s="97"/>
+      <c r="F39" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93" t="s">
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
       <c r="L39" s="34" t="s">
         <v>21</v>
       </c>
@@ -19533,20 +19533,20 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="91" t="s">
+      <c r="D50" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="92"/>
-      <c r="F50" s="93" t="s">
+      <c r="E50" s="97"/>
+      <c r="F50" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93" t="s">
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
       <c r="L50" s="34" t="s">
         <v>21</v>
       </c>
@@ -19789,11 +19789,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
@@ -19810,11 +19810,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
